--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$143</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Catagory</t>
   </si>
@@ -114,60 +114,54 @@
     <t>Get-SoftwareAudit.ps1</t>
   </si>
   <si>
+    <t>Get-SystemInfo.ps1</t>
+  </si>
+  <si>
+    <t>PSUseDeclaredVarsMoreThanAssignments</t>
+  </si>
+  <si>
+    <t>The variable 'SectionSettings' is assigned but never used.</t>
+  </si>
+  <si>
+    <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
+    <t>Get-WinEventLogExtract.ps1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'ReportPath' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Import-XamlConfigFile.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidGlobalVars</t>
+  </si>
+  <si>
+    <t>Found global variable 'global:ReadmeDisplay'.</t>
+  </si>
+  <si>
+    <t>Install-ChocolateyApps.ps1</t>
+  </si>
+  <si>
+    <t>Install-ChocolateyClient.ps1</t>
+  </si>
+  <si>
+    <t>Install-ChocolateyServer.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidUsingPositionalParameters</t>
+  </si>
+  <si>
+    <t>Cmdlet 'Set-ItemProperty' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
+  </si>
+  <si>
+    <t>Install-CitrixCloudConnector.ps1</t>
+  </si>
+  <si>
     <t>PSAvoidUsingCmdletAliases</t>
   </si>
   <si>
-    <t>'Out-GridHtml' is an alias of 'Out-HtmlView'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>Get-SystemInfo.ps1</t>
-  </si>
-  <si>
-    <t>'New-HTMLTableCondition' is an alias of 'New-TableCondition'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>PSUseDeclaredVarsMoreThanAssignments</t>
-  </si>
-  <si>
-    <t>The variable 'SectionSettings' is assigned but never used.</t>
-  </si>
-  <si>
-    <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Get-WinEventLogExtract.ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'ReportPath' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Import-XamlConfigFile.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidGlobalVars</t>
-  </si>
-  <si>
-    <t>Found global variable 'global:ReadmeDisplay'.</t>
-  </si>
-  <si>
-    <t>Install-ChocolateyApps.ps1</t>
-  </si>
-  <si>
-    <t>Install-ChocolateyClient.ps1</t>
-  </si>
-  <si>
-    <t>Install-ChocolateyServer.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidUsingPositionalParameters</t>
-  </si>
-  <si>
-    <t>Cmdlet 'Set-ItemProperty' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
-  </si>
-  <si>
-    <t>Install-CitrixCloudConnector.ps1</t>
-  </si>
-  <si>
     <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
   </si>
   <si>
@@ -219,13 +213,10 @@
     <t>The variable 'PSGet' is assigned but never used.</t>
   </si>
   <si>
-    <t>Show-ComputerManagment.ps1</t>
+    <t>Show-ComputerManagement.ps1</t>
   </si>
   <si>
     <t>Show-PSToolKit.ps1</t>
-  </si>
-  <si>
-    <t>'New-HTMLContent' is an alias of 'New-HTMLSection'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
   </si>
   <si>
     <t>The variable 'TableSettings' is assigned but never used.</t>
@@ -323,7 +314,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E151" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E143" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -375,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -385,7 +376,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.987193107605" customWidth="1"/>
-    <col min="2" max="2" width="30.4319458007813" customWidth="1"/>
+    <col min="2" max="2" width="31.1153545379639" customWidth="1"/>
     <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="356.878753662109" customWidth="1"/>
@@ -637,13 +628,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -651,16 +642,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D16" s="0">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -668,13 +659,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>34</v>
@@ -685,16 +676,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -702,16 +693,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -719,16 +710,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +727,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="0">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>11</v>
@@ -753,16 +744,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -770,16 +761,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D23" s="0">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -787,16 +778,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D24" s="0">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -804,16 +795,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25" s="0">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -821,16 +812,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D26" s="0">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -838,16 +829,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0">
         <v>38</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="0">
-        <v>180</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -855,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="0">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -872,13 +863,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>11</v>
@@ -889,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="0">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>11</v>
@@ -906,13 +897,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="0">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>11</v>
@@ -929,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>11</v>
@@ -946,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>11</v>
@@ -963,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="0">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>11</v>
@@ -980,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="0">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>11</v>
@@ -994,13 +985,13 @@
         <v>40</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D36" s="0">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1011,13 +1002,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D37" s="0">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1025,13 +1016,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="0">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>11</v>
@@ -1042,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39" s="0">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1059,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>11</v>
@@ -1076,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>11</v>
@@ -1093,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="0">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>11</v>
@@ -1110,13 +1101,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="0">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>11</v>
@@ -1127,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="0">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>11</v>
@@ -1144,16 +1135,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D45" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1161,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="0">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>11</v>
@@ -1178,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="0">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>11</v>
@@ -1195,16 +1186,16 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="0">
+        <v>121</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="0">
-        <v>37</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1212,16 +1203,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="0">
+        <v>125</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="0">
-        <v>38</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1229,16 +1220,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="0">
+        <v>126</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="0">
-        <v>40</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1246,16 +1237,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="0">
+        <v>127</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="0">
-        <v>73</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1263,13 +1254,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="0">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>11</v>
@@ -1280,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="0">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>11</v>
@@ -1297,16 +1288,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D54" s="0">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1314,16 +1305,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D55" s="0">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1331,16 +1322,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D56" s="0">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1354,7 +1345,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="0">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>47</v>
@@ -1368,13 +1359,13 @@
         <v>45</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D58" s="0">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
@@ -1388,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="0">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>11</v>
@@ -1405,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="0">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>11</v>
@@ -1422,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="D61" s="0">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>11</v>
@@ -1433,16 +1424,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D62" s="0">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1450,16 +1441,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D63" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1467,16 +1458,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D64" s="0">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1484,16 +1475,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D65" s="0">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
@@ -1501,13 +1492,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>11</v>
@@ -1518,13 +1509,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="0">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>11</v>
@@ -1535,16 +1526,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D68" s="0">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1552,16 +1543,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D69" s="0">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -1569,13 +1560,13 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="0">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>11</v>
@@ -1586,16 +1577,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D71" s="0">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -1603,13 +1594,13 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>11</v>
@@ -1620,13 +1611,13 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>11</v>
@@ -1637,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>11</v>
@@ -1654,13 +1645,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>11</v>
@@ -1674,13 +1665,13 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D76" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77">
@@ -1688,16 +1679,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D77" s="0">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
@@ -1705,16 +1696,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D78" s="0">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
@@ -1722,16 +1713,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D79" s="0">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -1739,16 +1730,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D80" s="0">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81">
@@ -1756,16 +1747,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D81" s="0">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -1773,16 +1764,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D82" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83">
@@ -1790,16 +1781,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D83" s="0">
         <v>72</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -1807,16 +1798,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D84" s="0">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -1824,16 +1815,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D85" s="0">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -1841,16 +1832,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D86" s="0">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -1858,16 +1849,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D87" s="0">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
@@ -1875,16 +1866,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D88" s="0">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -1892,16 +1883,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D89" s="0">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -1909,16 +1900,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D90" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -1926,13 +1917,13 @@
         <v>5</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="0">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>11</v>
@@ -1943,13 +1934,13 @@
         <v>5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="0">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>11</v>
@@ -1960,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="0">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>11</v>
@@ -1977,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="0">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>11</v>
@@ -1994,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="0">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>11</v>
@@ -2011,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="0">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>11</v>
@@ -2028,13 +2019,13 @@
         <v>5</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="0">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>11</v>
@@ -2045,13 +2036,13 @@
         <v>5</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="0">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>11</v>
@@ -2062,13 +2053,13 @@
         <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="0">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>11</v>
@@ -2079,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="0">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>11</v>
@@ -2096,13 +2087,13 @@
         <v>5</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="0">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>11</v>
@@ -2113,13 +2104,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="0">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>11</v>
@@ -2130,13 +2121,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="0">
-        <v>304</v>
+        <v>360</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>11</v>
@@ -2147,13 +2138,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="0">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>11</v>
@@ -2164,13 +2155,13 @@
         <v>5</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="0">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>11</v>
@@ -2181,16 +2172,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="0">
+        <v>147</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="0">
-        <v>336</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -2198,13 +2189,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="0">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>11</v>
@@ -2215,16 +2206,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D108" s="0">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -2232,16 +2223,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D109" s="0">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -2249,13 +2240,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="0">
-        <v>364</v>
+        <v>22</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>11</v>
@@ -2266,13 +2257,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="0">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>11</v>
@@ -2286,13 +2277,13 @@
         <v>64</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D112" s="0">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
@@ -2303,13 +2294,13 @@
         <v>64</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D113" s="0">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -2320,13 +2311,13 @@
         <v>64</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D114" s="0">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -2334,13 +2325,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="0">
-        <v>392</v>
+        <v>99</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>11</v>
@@ -2351,13 +2342,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="0">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>11</v>
@@ -2368,13 +2359,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="0">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>11</v>
@@ -2385,13 +2376,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="0">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>11</v>
@@ -2402,13 +2393,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D119" s="0">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>11</v>
@@ -2419,13 +2410,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="0">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>11</v>
@@ -2436,16 +2427,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" s="0">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122">
@@ -2456,13 +2447,13 @@
         <v>67</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D122" s="0">
         <v>132</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123">
@@ -2470,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="0">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>11</v>
@@ -2487,13 +2478,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="0">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>11</v>
@@ -2504,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="0">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>11</v>
@@ -2521,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="0">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>11</v>
@@ -2538,13 +2529,13 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="0">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>11</v>
@@ -2555,16 +2546,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D128" s="0">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129">
@@ -2572,16 +2563,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="0">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130">
@@ -2589,16 +2580,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D130" s="0">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131">
@@ -2606,16 +2597,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D131" s="0">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132">
@@ -2623,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D132" s="0">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>11</v>
@@ -2640,13 +2631,13 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D133" s="0">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>11</v>
@@ -2657,13 +2648,13 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D134" s="0">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>11</v>
@@ -2674,16 +2665,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D135" s="0">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
@@ -2691,16 +2682,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D136" s="0">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -2708,16 +2699,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="0">
+        <v>123</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="0">
-        <v>74</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="138">
@@ -2725,16 +2716,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D138" s="0">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139">
@@ -2742,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>10</v>
@@ -2759,13 +2750,13 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>11</v>
@@ -2776,13 +2767,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>11</v>
@@ -2793,13 +2784,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>11</v>
@@ -2810,156 +2801,20 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="0">
-        <v>123</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="0">
-        <v>135</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="0">
-        <v>22</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="0">
-        <v>38</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="0">
-        <v>40</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="0">
-        <v>41</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="0">
-        <v>43</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D151" s="0">
-        <v>125</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E151"/>
+  <autoFilter ref="A1:E143"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,9 +7,11 @@
   <sheets>
     <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Catagory</t>
   </si>
@@ -51,18 +53,18 @@
     <t>Edit-HostsFile.ps1</t>
   </si>
   <si>
+    <t>PSReviewUnusedParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'RemoveText' has been declared but not used. </t>
+  </si>
+  <si>
     <t>PSAvoidTrailingWhitespace</t>
   </si>
   <si>
     <t>Line has trailing whitespace</t>
   </si>
   <si>
-    <t>PSReviewUnusedParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'RemoveText' has been declared but not used. </t>
-  </si>
-  <si>
     <t>Edit-PSModulesLists.ps1</t>
   </si>
   <si>
@@ -114,16 +116,31 @@
     <t>Get-SoftwareAudit.ps1</t>
   </si>
   <si>
+    <t>PSAvoidUsingCmdletAliases</t>
+  </si>
+  <si>
+    <t>'Out-GridHtml' is an alias of 'Out-HtmlView'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
     <t>Get-SystemInfo.ps1</t>
   </si>
   <si>
+    <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
     <t>PSUseDeclaredVarsMoreThanAssignments</t>
   </si>
   <si>
     <t>The variable 'SectionSettings' is assigned but never used.</t>
   </si>
   <si>
-    <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
+    <t>'New-HTMLTableCondition' is an alias of 'New-TableCondition'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
+    <t>Get-SystemUptime.ps1</t>
+  </si>
+  <si>
+    <t>The cmdlet 'Get-SystemUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
   </si>
   <si>
     <t>Get-WinEventLogExtract.ps1</t>
@@ -159,9 +176,6 @@
     <t>Install-CitrixCloudConnector.ps1</t>
   </si>
   <si>
-    <t>PSAvoidUsingCmdletAliases</t>
-  </si>
-  <si>
     <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
   </si>
   <si>
@@ -195,15 +209,15 @@
     <t>Remove-UserProfile.ps1</t>
   </si>
   <si>
+    <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
+  </si>
+  <si>
     <t>PSUseUsingScopeModifierInNewRunspaces</t>
   </si>
   <si>
     <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
   </si>
   <si>
-    <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
-  </si>
-  <si>
     <t>Set-PSProjectFiles.ps1</t>
   </si>
   <si>
@@ -222,6 +236,9 @@
     <t>The variable 'TableSettings' is assigned but never used.</t>
   </si>
   <si>
+    <t>'New-HTMLContent' is an alias of 'New-HTMLSection'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
     <t>Start-PSModuleMaintenance.ps1</t>
   </si>
   <si>
@@ -231,12 +248,21 @@
     <t>Start-PSProfile.ps1</t>
   </si>
   <si>
+    <t>Start-PSToolkitSystemInitialize.ps1</t>
+  </si>
+  <si>
     <t>Sync-PSFolders.ps1</t>
   </si>
   <si>
     <t xml:space="preserve">The parameter 'LogPath' has been declared but not used. </t>
   </si>
   <si>
+    <t>PSAvoidOverwritingBuiltInCmdlets</t>
+  </si>
+  <si>
+    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
+  </si>
+  <si>
     <t>Test-CitrixVDAPorts.ps1</t>
   </si>
   <si>
@@ -262,6 +288,42 @@
   </si>
   <si>
     <t>Write-PSToolKitLog.ps1</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Get-SystemUptime</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Show-ComputerManagement</t>
+  </si>
+  <si>
+    <t>Start-PSToolkitSystemInitialize</t>
+  </si>
+  <si>
+    <t>Show-ComputerManagment.md</t>
+  </si>
+  <si>
+    <t>Show-ComputerManagment.md - ### -ComputerName - {{ Fill ComputerName Description }}</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Show-ComputerManagment</t>
   </si>
 </sst>
 </file>
@@ -300,8 +362,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -314,7 +377,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E143" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E163" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -366,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -375,11 +438,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
-    <col min="2" max="2" width="31.1153545379639" customWidth="1"/>
-    <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
+    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
+    <col min="2" max="2" width="31.715892791748047" customWidth="1"/>
+    <col min="3" max="3" width="39.50345993041992" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="356.878753662109" customWidth="1"/>
+    <col min="5" max="5" width="356.8787536621094" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -427,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
@@ -444,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="0">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
@@ -458,13 +521,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0">
         <v>119</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -475,13 +538,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0">
         <v>126</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -492,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0">
         <v>138</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -526,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0">
         <v>61</v>
@@ -560,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0">
         <v>67</v>
@@ -577,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0">
         <v>68</v>
@@ -628,13 +691,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0">
         <v>100</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -642,16 +705,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0">
+        <v>106</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="0">
-        <v>236</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -659,16 +722,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -676,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="0">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -693,16 +756,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -710,16 +773,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -727,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -744,13 +807,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D22" s="0">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>36</v>
@@ -761,16 +824,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="0">
+        <v>299</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="0">
-        <v>113</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -778,16 +841,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="0">
+        <v>300</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="0">
-        <v>113</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -795,16 +858,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="0">
+        <v>304</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="0">
-        <v>22</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -812,16 +875,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -829,16 +892,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -846,16 +909,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0">
         <v>37</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="0">
-        <v>39</v>
-      </c>
       <c r="E28" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -863,16 +926,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -880,16 +943,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -897,16 +960,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="0">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -917,13 +980,13 @@
         <v>40</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D32" s="0">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -934,13 +997,13 @@
         <v>40</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D33" s="0">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -948,16 +1011,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -965,16 +1028,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D35" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -982,16 +1045,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -999,16 +1062,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="0">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1016,16 +1079,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38" s="0">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1033,16 +1096,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D39" s="0">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1050,16 +1113,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40" s="0">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1067,16 +1130,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D41" s="0">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1084,16 +1147,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D42" s="0">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1101,16 +1164,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1118,16 +1181,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1135,16 +1198,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45" s="0">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1152,16 +1215,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="0">
         <v>41</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="0">
-        <v>74</v>
-      </c>
       <c r="E46" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -1169,16 +1232,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1186,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D48" s="0">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1203,16 +1266,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D49" s="0">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1220,16 +1283,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D50" s="0">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1237,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D51" s="0">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1254,16 +1317,16 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D52" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1271,16 +1334,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D53" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1288,16 +1351,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D54" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1305,16 +1368,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55" s="0">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -1322,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" s="0">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1339,16 +1402,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D57" s="0">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1356,16 +1419,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D58" s="0">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1373,16 +1436,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D59" s="0">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1390,16 +1453,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60" s="0">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1407,16 +1470,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D61" s="0">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -1424,16 +1487,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D62" s="0">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1441,16 +1504,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D63" s="0">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1458,16 +1521,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="0">
+        <v>121</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="0">
-        <v>92</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1475,16 +1538,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D65" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
@@ -1492,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D66" s="0">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
@@ -1509,16 +1572,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D67" s="0">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68">
@@ -1526,16 +1589,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68" s="0">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -1543,16 +1606,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69" s="0">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -1560,16 +1623,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D70" s="0">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -1577,16 +1640,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D71" s="0">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72">
@@ -1594,16 +1657,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D72" s="0">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
@@ -1614,13 +1677,13 @@
         <v>53</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D73" s="0">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1631,13 +1694,13 @@
         <v>53</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" s="0">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1648,13 +1711,13 @@
         <v>53</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75" s="0">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -1665,10 +1728,10 @@
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D76" s="0">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>55</v>
@@ -1682,13 +1745,13 @@
         <v>56</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D77" s="0">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -1699,13 +1762,13 @@
         <v>56</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D78" s="0">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -1716,13 +1779,13 @@
         <v>56</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D79" s="0">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -1733,13 +1796,13 @@
         <v>56</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D80" s="0">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -1750,13 +1813,13 @@
         <v>56</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D81" s="0">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -1767,13 +1830,13 @@
         <v>57</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D82" s="0">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -1787,10 +1850,10 @@
         <v>12</v>
       </c>
       <c r="D83" s="0">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -1801,13 +1864,13 @@
         <v>57</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D84" s="0">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -1815,16 +1878,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D85" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -1832,16 +1895,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D86" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -1849,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="0">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88">
@@ -1866,16 +1929,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D88" s="0">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -1883,16 +1946,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D89" s="0">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90">
@@ -1900,16 +1963,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D90" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
@@ -1917,16 +1980,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D91" s="0">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92">
@@ -1934,16 +1997,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D92" s="0">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -1954,13 +2017,13 @@
         <v>61</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D93" s="0">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -1974,10 +2037,10 @@
         <v>10</v>
       </c>
       <c r="D94" s="0">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95">
@@ -1988,13 +2051,13 @@
         <v>61</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D95" s="0">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96">
@@ -2002,16 +2065,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96" s="0">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -2019,16 +2082,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97" s="0">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -2036,16 +2099,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D98" s="0">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -2053,16 +2116,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" s="0">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -2070,16 +2133,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100" s="0">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -2087,16 +2150,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D101" s="0">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -2104,16 +2167,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102" s="0">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -2121,16 +2184,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D103" s="0">
-        <v>360</v>
+        <v>164</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -2138,16 +2201,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D104" s="0">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -2155,16 +2218,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" s="0">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -2172,16 +2235,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D106" s="0">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -2189,16 +2252,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D107" s="0">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -2206,16 +2269,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D108" s="0">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -2223,16 +2286,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D109" s="0">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -2240,16 +2303,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D110" s="0">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -2257,16 +2320,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D111" s="0">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
@@ -2274,16 +2337,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D112" s="0">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -2291,16 +2354,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D113" s="0">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
@@ -2308,16 +2371,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D114" s="0">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -2328,13 +2391,13 @@
         <v>65</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" s="0">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -2345,13 +2408,13 @@
         <v>65</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116" s="0">
-        <v>109</v>
+        <v>376</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
@@ -2359,16 +2422,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117" s="0">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -2376,16 +2439,16 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D118" s="0">
-        <v>157</v>
+        <v>355</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -2393,16 +2456,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D119" s="0">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -2410,16 +2473,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D120" s="0">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121">
@@ -2427,16 +2490,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D121" s="0">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -2444,16 +2507,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D122" s="0">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
@@ -2461,16 +2524,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D123" s="0">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -2478,16 +2541,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D124" s="0">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
@@ -2495,16 +2558,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D125" s="0">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -2515,13 +2578,13 @@
         <v>69</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D126" s="0">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -2532,13 +2595,13 @@
         <v>69</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D127" s="0">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -2546,16 +2609,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="0">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -2563,16 +2626,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D129" s="0">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -2580,16 +2643,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D130" s="0">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
@@ -2597,16 +2660,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D131" s="0">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -2614,16 +2677,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D132" s="0">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
@@ -2631,16 +2694,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D133" s="0">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134">
@@ -2648,16 +2711,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D134" s="0">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
@@ -2668,13 +2731,13 @@
         <v>74</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D135" s="0">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
@@ -2685,13 +2748,13 @@
         <v>74</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D136" s="0">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
@@ -2699,16 +2762,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D137" s="0">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
@@ -2716,16 +2779,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D138" s="0">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -2733,16 +2796,16 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D139" s="0">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
@@ -2750,16 +2813,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D140" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -2767,16 +2830,16 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D141" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
@@ -2784,16 +2847,16 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D142" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -2801,20 +2864,360 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="0">
+        <v>38</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="0">
+        <v>40</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="0">
+        <v>63</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="0">
+        <v>82</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147" s="0">
+        <v>75</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="0">
+      <c r="C148" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="0">
+        <v>116</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="0">
+        <v>22</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="0">
+        <v>36</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="0">
+        <v>38</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="0">
+        <v>39</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="0">
+        <v>41</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" s="0">
+        <v>74</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" s="0">
+        <v>82</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="0">
+        <v>123</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="0">
+        <v>135</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" s="0">
+        <v>125</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="0">
+        <v>22</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="0">
+        <v>38</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="0">
+        <v>40</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="0">
+        <v>41</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="0">
         <v>43</v>
       </c>
-      <c r="E143" s="0" t="s">
-        <v>11</v>
+      <c r="E163" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E143"/>
+  <autoFilter ref="A1:E163"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2828,4 +3231,103 @@
   <sheetData/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="29.827314376831055" customWidth="1"/>
+    <col min="3" max="3" width="82.75456237792969" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C7"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     <t>Edit-HostsFile.ps1</t>
   </si>
   <si>
+    <t>PSAvoidTrailingWhitespace</t>
+  </si>
+  <si>
+    <t>Line has trailing whitespace</t>
+  </si>
+  <si>
     <t>PSReviewUnusedParameter</t>
   </si>
   <si>
     <t xml:space="preserve">The parameter 'RemoveText' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSAvoidTrailingWhitespace</t>
-  </si>
-  <si>
-    <t>Line has trailing whitespace</t>
-  </si>
-  <si>
     <t>Edit-PSModulesLists.ps1</t>
   </si>
   <si>
@@ -83,6 +83,12 @@
     <t xml:space="preserve">The parameter 'ExportPath' has been declared but not used. </t>
   </si>
   <si>
+    <t>Get-DeviceUptime.ps1</t>
+  </si>
+  <si>
+    <t>The cmdlet 'Get-DeviceUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
     <t>Get-FQDN.ps1</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>Get-SystemInfo.ps1</t>
   </si>
   <si>
+    <t>'New-HTMLTableCondition' is an alias of 'New-TableCondition'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
     <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
   </si>
   <si>
@@ -134,15 +143,6 @@
     <t>The variable 'SectionSettings' is assigned but never used.</t>
   </si>
   <si>
-    <t>'New-HTMLTableCondition' is an alias of 'New-TableCondition'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>Get-SystemUptime.ps1</t>
-  </si>
-  <si>
-    <t>The cmdlet 'Get-SystemUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
     <t>Get-WinEventLogExtract.ps1</t>
   </si>
   <si>
@@ -209,15 +209,15 @@
     <t>Remove-UserProfile.ps1</t>
   </si>
   <si>
+    <t>PSUseUsingScopeModifierInNewRunspaces</t>
+  </si>
+  <si>
+    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSUseUsingScopeModifierInNewRunspaces</t>
-  </si>
-  <si>
-    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
-  </si>
-  <si>
     <t>Set-PSProjectFiles.ps1</t>
   </si>
   <si>
@@ -233,12 +233,12 @@
     <t>Show-PSToolKit.ps1</t>
   </si>
   <si>
+    <t>'New-HTMLContent' is an alias of 'New-HTMLSection'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
     <t>The variable 'TableSettings' is assigned but never used.</t>
   </si>
   <si>
-    <t>'New-HTMLContent' is an alias of 'New-HTMLSection'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
     <t>Start-PSModuleMaintenance.ps1</t>
   </si>
   <si>
@@ -254,15 +254,15 @@
     <t>Sync-PSFolders.ps1</t>
   </si>
   <si>
+    <t>PSAvoidOverwritingBuiltInCmdlets</t>
+  </si>
+  <si>
+    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
+  </si>
+  <si>
     <t xml:space="preserve">The parameter 'LogPath' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSAvoidOverwritingBuiltInCmdlets</t>
-  </si>
-  <si>
-    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
-  </si>
-  <si>
     <t>Test-CitrixVDAPorts.ps1</t>
   </si>
   <si>
@@ -296,7 +296,7 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Get-SystemUptime</t>
+    <t>Get-DeviceUptime</t>
   </si>
   <si>
     <t>Did not create the .md file</t>
@@ -377,7 +377,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E163" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E164" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
@@ -507,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="0">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
@@ -521,13 +521,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0">
         <v>119</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0">
         <v>126</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0">
         <v>138</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0">
         <v>61</v>
@@ -606,13 +606,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -620,16 +620,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -637,16 +637,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="0">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -654,16 +654,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -688,16 +688,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -705,16 +705,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -722,16 +722,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="0">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="0">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -756,16 +756,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -773,16 +773,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D20" s="0">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -790,13 +790,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D21" s="0">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>34</v>
@@ -807,16 +807,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -824,16 +824,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="D23" s="0">
         <v>299</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -841,16 +841,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="0">
         <v>300</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -858,16 +858,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="D25" s="0">
         <v>304</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -875,16 +875,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="0">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -892,16 +892,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="0">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -909,16 +909,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="0">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -926,16 +926,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -943,16 +943,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="0">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -960,16 +960,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D31" s="0">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -980,13 +980,13 @@
         <v>40</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="0">
         <v>179</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -997,13 +997,13 @@
         <v>40</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0">
         <v>180</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -1011,16 +1011,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="0">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1031,13 +1031,13 @@
         <v>42</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D35" s="0">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1048,13 +1048,13 @@
         <v>42</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D36" s="0">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -1065,13 +1065,13 @@
         <v>42</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1082,13 +1082,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1099,13 +1099,13 @@
         <v>42</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="0">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1116,13 +1116,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1133,13 +1133,13 @@
         <v>42</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D41" s="0">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1150,13 +1150,13 @@
         <v>42</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D42" s="0">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1164,16 +1164,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="0">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1184,13 +1184,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1201,13 +1201,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1218,13 +1218,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D46" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1235,13 +1235,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1252,13 +1252,13 @@
         <v>45</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1269,13 +1269,13 @@
         <v>45</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1283,16 +1283,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="0">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1303,13 +1303,13 @@
         <v>46</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1320,13 +1320,13 @@
         <v>46</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1337,13 +1337,13 @@
         <v>46</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1354,13 +1354,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1371,13 +1371,13 @@
         <v>46</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" s="0">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1388,13 +1388,13 @@
         <v>46</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1405,13 +1405,13 @@
         <v>46</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -1422,13 +1422,13 @@
         <v>46</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D58" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -1436,16 +1436,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1456,13 +1456,13 @@
         <v>47</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D60" s="0">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
@@ -1473,13 +1473,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D61" s="0">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
@@ -1490,13 +1490,13 @@
         <v>47</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D62" s="0">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +1507,13 @@
         <v>47</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D63" s="0">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
@@ -1524,13 +1524,13 @@
         <v>47</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D64" s="0">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1541,13 +1541,13 @@
         <v>47</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D65" s="0">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -1558,13 +1558,13 @@
         <v>47</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D66" s="0">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -1575,13 +1575,13 @@
         <v>47</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D67" s="0">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -1589,16 +1589,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" s="0">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1609,13 +1609,13 @@
         <v>50</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D69" s="0">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -1626,13 +1626,13 @@
         <v>50</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D70" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71">
@@ -1643,13 +1643,13 @@
         <v>50</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D71" s="0">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -1660,13 +1660,13 @@
         <v>50</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D72" s="0">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -1674,16 +1674,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73" s="0">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -1694,13 +1694,13 @@
         <v>53</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D74" s="0">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -1711,13 +1711,13 @@
         <v>53</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D75" s="0">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1725,16 +1725,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D76" s="0">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -1742,16 +1742,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D77" s="0">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -1762,13 +1762,13 @@
         <v>56</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -1779,13 +1779,13 @@
         <v>56</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D79" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -1796,13 +1796,13 @@
         <v>56</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D80" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -1813,13 +1813,13 @@
         <v>56</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D81" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -1827,16 +1827,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D82" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -1847,13 +1847,13 @@
         <v>57</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
@@ -1864,13 +1864,13 @@
         <v>57</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -1881,13 +1881,13 @@
         <v>57</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -1898,13 +1898,13 @@
         <v>57</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D86" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -1912,16 +1912,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
@@ -1929,16 +1929,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D88" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89">
@@ -2014,16 +2014,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D93" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -2034,13 +2034,13 @@
         <v>61</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D94" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -2051,13 +2051,13 @@
         <v>61</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D95" s="0">
         <v>72</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96">
@@ -2065,16 +2065,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="0">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
@@ -2085,13 +2085,13 @@
         <v>65</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D97" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2102,13 +2102,13 @@
         <v>65</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D98" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -2119,13 +2119,13 @@
         <v>65</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D99" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -2136,13 +2136,13 @@
         <v>65</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D100" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -2153,13 +2153,13 @@
         <v>65</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D101" s="0">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
@@ -2170,13 +2170,13 @@
         <v>65</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D102" s="0">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -2187,13 +2187,13 @@
         <v>65</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D103" s="0">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -2204,13 +2204,13 @@
         <v>65</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2221,13 +2221,13 @@
         <v>65</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105" s="0">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -2238,13 +2238,13 @@
         <v>65</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D106" s="0">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -2255,13 +2255,13 @@
         <v>65</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D107" s="0">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -2272,13 +2272,13 @@
         <v>65</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D108" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -2289,13 +2289,13 @@
         <v>65</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D109" s="0">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -2306,13 +2306,13 @@
         <v>65</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110" s="0">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -2323,13 +2323,13 @@
         <v>65</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D111" s="0">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
@@ -2340,13 +2340,13 @@
         <v>65</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D112" s="0">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
@@ -2357,13 +2357,13 @@
         <v>65</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D113" s="0">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -2374,13 +2374,13 @@
         <v>65</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D114" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -2391,13 +2391,13 @@
         <v>65</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D115" s="0">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -2408,13 +2408,13 @@
         <v>65</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D116" s="0">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -2422,16 +2422,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D117" s="0">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -2476,13 +2476,13 @@
         <v>66</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D120" s="0">
-        <v>147</v>
+        <v>392</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2490,16 +2490,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D121" s="0">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122">
@@ -2510,13 +2510,13 @@
         <v>68</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D122" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -2527,13 +2527,13 @@
         <v>68</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D123" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
@@ -2544,13 +2544,13 @@
         <v>68</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D124" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
@@ -2561,13 +2561,13 @@
         <v>68</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D125" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -2575,16 +2575,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D126" s="0">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -2595,13 +2595,13 @@
         <v>69</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D127" s="0">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128">
@@ -2612,13 +2612,13 @@
         <v>69</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D128" s="0">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
@@ -2629,13 +2629,13 @@
         <v>69</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D129" s="0">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
@@ -2646,13 +2646,13 @@
         <v>69</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D130" s="0">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
@@ -2663,13 +2663,13 @@
         <v>69</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D131" s="0">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
@@ -2680,13 +2680,13 @@
         <v>69</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D132" s="0">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
@@ -2697,13 +2697,13 @@
         <v>69</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D133" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
@@ -2711,16 +2711,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D134" s="0">
         <v>132</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135">
@@ -2728,16 +2728,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D135" s="0">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136">
@@ -2748,13 +2748,13 @@
         <v>74</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D136" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -2765,13 +2765,13 @@
         <v>74</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D137" s="0">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -2782,13 +2782,13 @@
         <v>74</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D138" s="0">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -2799,13 +2799,13 @@
         <v>74</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D139" s="0">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
@@ -2813,16 +2813,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D140" s="0">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -2833,13 +2833,13 @@
         <v>75</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D141" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -2850,13 +2850,13 @@
         <v>75</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D142" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -2867,13 +2867,13 @@
         <v>75</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D143" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -2884,13 +2884,13 @@
         <v>75</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D144" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -2901,13 +2901,13 @@
         <v>75</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D145" s="0">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
@@ -2915,16 +2915,16 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="0">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
@@ -2935,13 +2935,13 @@
         <v>76</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D147" s="0">
         <v>75</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148">
@@ -2949,16 +2949,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D148" s="0">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149">
@@ -2966,16 +2966,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D149" s="0">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150">
@@ -2986,13 +2986,13 @@
         <v>82</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D150" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -3003,13 +3003,13 @@
         <v>82</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D151" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -3020,13 +3020,13 @@
         <v>82</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D152" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -3037,13 +3037,13 @@
         <v>82</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D153" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
@@ -3054,13 +3054,13 @@
         <v>82</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D154" s="0">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
@@ -3071,10 +3071,10 @@
         <v>82</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D155" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>83</v>
@@ -3085,16 +3085,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D156" s="0">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157">
@@ -3102,16 +3102,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="0">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158">
@@ -3119,16 +3119,16 @@
         <v>5</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D158" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159">
@@ -3139,13 +3139,13 @@
         <v>88</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D159" s="0">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
@@ -3156,13 +3156,13 @@
         <v>88</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D160" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
@@ -3173,13 +3173,13 @@
         <v>88</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D161" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
@@ -3190,13 +3190,13 @@
         <v>88</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D162" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
@@ -3207,17 +3207,34 @@
         <v>88</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D163" s="0">
+        <v>41</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="0">
         <v>43</v>
       </c>
-      <c r="E163" s="0" t="s">
-        <v>13</v>
+      <c r="E164" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E163"/>
+  <autoFilter ref="A1:E164"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$164</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Catagory</t>
   </si>
@@ -134,15 +134,15 @@
     <t>'New-HTMLTableCondition' is an alias of 'New-TableCondition'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
   </si>
   <si>
+    <t>PSUseDeclaredVarsMoreThanAssignments</t>
+  </si>
+  <si>
+    <t>The variable 'SectionSettings' is assigned but never used.</t>
+  </si>
+  <si>
     <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
   </si>
   <si>
-    <t>PSUseDeclaredVarsMoreThanAssignments</t>
-  </si>
-  <si>
-    <t>The variable 'SectionSettings' is assigned but never used.</t>
-  </si>
-  <si>
     <t>Get-WinEventLogExtract.ps1</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
     <t>Set-PSProjectFiles.ps1</t>
   </si>
   <si>
+    <t xml:space="preserve">The parameter 'mkdocs' has been declared but not used. </t>
+  </si>
+  <si>
     <t>Set-PSToolKitSystemSettings.ps1</t>
   </si>
   <si>
@@ -254,12 +257,6 @@
     <t>Sync-PSFolders.ps1</t>
   </si>
   <si>
-    <t>PSAvoidOverwritingBuiltInCmdlets</t>
-  </si>
-  <si>
-    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
-  </si>
-  <si>
     <t xml:space="preserve">The parameter 'LogPath' has been declared but not used. </t>
   </si>
   <si>
@@ -296,34 +293,16 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Get-DeviceUptime</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Show-ComputerManagement</t>
-  </si>
-  <si>
-    <t>Start-PSToolkitSystemInitialize</t>
-  </si>
-  <si>
-    <t>Show-ComputerManagment.md</t>
-  </si>
-  <si>
-    <t>Show-ComputerManagment.md - ### -ComputerName - {{ Fill ComputerName Description }}</t>
-  </si>
-  <si>
-    <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Show-ComputerManagment</t>
+    <t>Get-DeviceUptime.md</t>
+  </si>
+  <si>
+    <t>Get-DeviceUptime.md - ### -ComputerName - {{ Fill ComputerName Description }}</t>
+  </si>
+  <si>
+    <t>Start-PSToolkitSystemInitialize.md</t>
+  </si>
+  <si>
+    <t>Start-PSToolkitSystemInitialize.md - ### -InstallMyModules - {{ Fill InstallMyModules Description }}</t>
   </si>
 </sst>
 </file>
@@ -377,7 +356,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E164" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E162" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -429,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -438,11 +417,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
-    <col min="2" max="2" width="31.715892791748047" customWidth="1"/>
-    <col min="3" max="3" width="39.50345993041992" customWidth="1"/>
+    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
+    <col min="2" max="2" width="31.715892791748" customWidth="1"/>
+    <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="356.8787536621094" customWidth="1"/>
+    <col min="5" max="5" width="356.878753662109" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -606,13 +585,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -626,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>11</v>
@@ -643,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>11</v>
@@ -660,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>11</v>
@@ -677,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>11</v>
@@ -691,13 +670,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +857,13 @@
         <v>35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D26" s="0">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -895,13 +874,13 @@
         <v>35</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -915,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="0">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>11</v>
@@ -932,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="0">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>11</v>
@@ -946,13 +925,13 @@
         <v>35</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -963,13 +942,13 @@
         <v>35</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D31" s="0">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1303,13 +1282,13 @@
         <v>46</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D51" s="0">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1323,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>11</v>
@@ -1340,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="D53" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>11</v>
@@ -1357,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>11</v>
@@ -1374,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>11</v>
@@ -1391,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="0">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>11</v>
@@ -1408,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>11</v>
@@ -1425,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>11</v>
@@ -1439,13 +1418,13 @@
         <v>46</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D59" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1694,13 +1673,13 @@
         <v>53</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" s="0">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1714,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="0">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>8</v>
@@ -1728,13 +1707,13 @@
         <v>53</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D76" s="0">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -2085,13 +2064,13 @@
         <v>65</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97" s="0">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98">
@@ -2105,7 +2084,7 @@
         <v>10</v>
       </c>
       <c r="D98" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>11</v>
@@ -2122,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="D99" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>11</v>
@@ -2139,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="D100" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>11</v>
@@ -2156,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>11</v>
@@ -2173,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="0">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>11</v>
@@ -2190,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="D103" s="0">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>11</v>
@@ -2207,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="D104" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>11</v>
@@ -2224,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="D105" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>11</v>
@@ -2241,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="D106" s="0">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>11</v>
@@ -2258,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>11</v>
@@ -2275,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="D108" s="0">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>11</v>
@@ -2292,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="D109" s="0">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>11</v>
@@ -2309,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="D110" s="0">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>11</v>
@@ -2326,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="D111" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>11</v>
@@ -2343,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="D112" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>11</v>
@@ -2360,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="0">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>11</v>
@@ -2377,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="D114" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>11</v>
@@ -2388,16 +2367,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D115" s="0">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116">
@@ -2405,16 +2384,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D116" s="0">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
@@ -2422,16 +2401,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D117" s="0">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -2439,16 +2418,16 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D118" s="0">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
@@ -2456,16 +2435,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D119" s="0">
-        <v>369</v>
+        <v>22</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -2473,13 +2452,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="0">
-        <v>392</v>
+        <v>37</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>11</v>
@@ -2490,16 +2469,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D121" s="0">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2507,13 +2486,13 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>11</v>
@@ -2524,13 +2503,13 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>11</v>
@@ -2541,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D124" s="0">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125">
@@ -2558,16 +2537,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D125" s="0">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126">
@@ -2575,13 +2554,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="0">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>11</v>
@@ -2592,16 +2571,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D127" s="0">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -2609,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>11</v>
@@ -2626,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D129" s="0">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>11</v>
@@ -2643,13 +2622,13 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D130" s="0">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>11</v>
@@ -2660,13 +2639,13 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D131" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>11</v>
@@ -2677,16 +2656,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D132" s="0">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133">
@@ -2694,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D133" s="0">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>11</v>
@@ -2711,16 +2690,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D134" s="0">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
@@ -2728,16 +2707,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D135" s="0">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
@@ -2745,13 +2724,13 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D136" s="0">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>11</v>
@@ -2762,13 +2741,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="0">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>11</v>
@@ -2779,13 +2758,13 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D138" s="0">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>11</v>
@@ -2796,13 +2775,13 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="0">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>11</v>
@@ -2813,13 +2792,13 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="0">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>11</v>
@@ -2830,13 +2809,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>11</v>
@@ -2847,13 +2826,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>11</v>
@@ -2864,13 +2843,13 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>11</v>
@@ -2881,13 +2860,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D144" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>11</v>
@@ -2898,13 +2877,13 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="0">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>11</v>
@@ -2915,16 +2894,16 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D146" s="0">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147">
@@ -2932,16 +2911,16 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D147" s="0">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148">
@@ -2949,16 +2928,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D148" s="0">
+        <v>74</v>
+      </c>
+      <c r="E148" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="149">
@@ -2966,16 +2945,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D149" s="0">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150">
@@ -2983,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>10</v>
@@ -3000,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>10</v>
@@ -3017,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>10</v>
@@ -3034,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>10</v>
@@ -3051,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>10</v>
@@ -3068,16 +3047,16 @@
         <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D155" s="0">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156">
@@ -3085,16 +3064,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D156" s="0">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157">
@@ -3102,16 +3081,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D157" s="0">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -3119,16 +3098,16 @@
         <v>5</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D158" s="0">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -3136,16 +3115,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D159" s="0">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
@@ -3153,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>11</v>
@@ -3170,13 +3149,13 @@
         <v>5</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D161" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>11</v>
@@ -3187,54 +3166,20 @@
         <v>5</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D162" s="0">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="0">
-        <v>41</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="0">
-        <v>43</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E164"/>
+  <autoFilter ref="A1:E162"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3252,7 +3197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -3261,9 +3206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="29.827314376831055" customWidth="1"/>
-    <col min="3" max="3" width="82.75456237792969" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="31.5020732879639" customWidth="1"/>
+    <col min="3" max="3" width="87.8299942016602" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3274,77 +3219,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$177</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Catagory</t>
   </si>
@@ -51,21 +51,21 @@
     <t>Edit-HostsFile.ps1</t>
   </si>
   <si>
+    <t>PSReviewUnusedParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'RemoveText' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Edit-PSModulesLists.ps1</t>
+  </si>
+  <si>
     <t>PSAvoidTrailingWhitespace</t>
   </si>
   <si>
     <t>Line has trailing whitespace</t>
   </si>
   <si>
-    <t>PSReviewUnusedParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'RemoveText' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Edit-PSModulesLists.ps1</t>
-  </si>
-  <si>
     <t>Export-CitrixPolicySettings.ps1</t>
   </si>
   <si>
@@ -201,15 +201,15 @@
     <t>Remove-UserProfile.ps1</t>
   </si>
   <si>
+    <t>PSUseUsingScopeModifierInNewRunspaces</t>
+  </si>
+  <si>
+    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSUseUsingScopeModifierInNewRunspaces</t>
-  </si>
-  <si>
-    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
-  </si>
-  <si>
     <t>Set-PSProjectFiles.ps1</t>
   </si>
   <si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>The cmdlet 'Update-PSScriptInfo' returns an object of type 'System.Collections.Hashtable' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
+    <t>Update-PSToolKitConfigFiles.ps1</t>
   </si>
   <si>
     <t>Write-PSToolKitLog.ps1</t>
@@ -329,7 +332,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E167" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E177" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -381,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -442,7 +445,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
@@ -453,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -470,16 +473,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -487,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -504,16 +507,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -521,16 +524,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -538,16 +541,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -558,13 +561,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -592,13 +595,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +612,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -626,13 +629,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -640,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +660,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +680,13 @@
         <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -691,16 +694,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D18" s="0">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -708,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D19" s="0">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -725,16 +728,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D20" s="0">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -742,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D21" s="0">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -762,13 +765,13 @@
         <v>33</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -779,13 +782,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="0">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -796,13 +799,13 @@
         <v>33</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D24" s="0">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +816,13 @@
         <v>33</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -830,13 +833,13 @@
         <v>33</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -844,16 +847,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="0">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -861,16 +864,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D28" s="0">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -898,13 +901,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D30" s="0">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -915,13 +918,13 @@
         <v>39</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -932,13 +935,13 @@
         <v>39</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -949,13 +952,13 @@
         <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -966,13 +969,13 @@
         <v>39</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -983,13 +986,13 @@
         <v>39</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1000,13 +1003,13 @@
         <v>39</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="0">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1014,16 +1017,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37" s="0">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1034,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D38" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1051,13 +1054,13 @@
         <v>42</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1068,13 +1071,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D40" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1085,13 +1088,13 @@
         <v>42</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1105,13 @@
         <v>42</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1119,13 +1122,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D43" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1133,16 +1136,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D44" s="0">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1153,13 +1156,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D45" s="0">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1170,13 +1173,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1187,13 +1190,13 @@
         <v>43</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D47" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1204,13 +1207,13 @@
         <v>43</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D48" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1221,13 +1224,13 @@
         <v>43</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D49" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1238,13 +1241,13 @@
         <v>43</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D50" s="0">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -1255,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D51" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -1272,13 +1275,13 @@
         <v>43</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D52" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1286,16 +1289,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D53" s="0">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
@@ -1309,7 +1312,7 @@
         <v>45</v>
       </c>
       <c r="D54" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>46</v>
@@ -1326,7 +1329,7 @@
         <v>45</v>
       </c>
       <c r="D55" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>46</v>
@@ -1343,7 +1346,7 @@
         <v>45</v>
       </c>
       <c r="D56" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>46</v>
@@ -1357,13 +1360,13 @@
         <v>44</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D57" s="0">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1374,13 +1377,13 @@
         <v>44</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D58" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -1391,13 +1394,13 @@
         <v>44</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D59" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -1408,13 +1411,13 @@
         <v>44</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D60" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1425,13 +1428,13 @@
         <v>44</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D61" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -1439,16 +1442,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D62" s="0">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
@@ -1462,10 +1465,10 @@
         <v>48</v>
       </c>
       <c r="D63" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
@@ -1476,13 +1479,13 @@
         <v>47</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D64" s="0">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -1493,13 +1496,13 @@
         <v>47</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D65" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -1510,13 +1513,13 @@
         <v>47</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D66" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -1524,16 +1527,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D67" s="0">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -1547,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="0">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>8</v>
@@ -1561,13 +1564,13 @@
         <v>51</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D69" s="0">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -1575,16 +1578,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D70" s="0">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
@@ -1592,16 +1595,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D71" s="0">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -1612,13 +1615,13 @@
         <v>54</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D72" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -1629,13 +1632,13 @@
         <v>54</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D73" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -1646,13 +1649,13 @@
         <v>54</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D74" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -1663,13 +1666,13 @@
         <v>54</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D75" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -1677,16 +1680,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D76" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -1697,13 +1700,13 @@
         <v>55</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D77" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -1714,13 +1717,13 @@
         <v>55</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D78" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -1731,13 +1734,13 @@
         <v>55</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D79" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -1748,13 +1751,13 @@
         <v>55</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D80" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -1762,16 +1765,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82">
@@ -1779,16 +1782,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D82" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83">
@@ -1802,7 +1805,7 @@
         <v>45</v>
       </c>
       <c r="D83" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>53</v>
@@ -1819,7 +1822,7 @@
         <v>45</v>
       </c>
       <c r="D84" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>53</v>
@@ -1836,7 +1839,7 @@
         <v>45</v>
       </c>
       <c r="D85" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>53</v>
@@ -1850,13 +1853,13 @@
         <v>58</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D86" s="0">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
@@ -1864,13 +1867,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>24</v>
@@ -1884,13 +1887,13 @@
         <v>59</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D88" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89">
@@ -1901,13 +1904,13 @@
         <v>59</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="0">
         <v>72</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90">
@@ -1915,16 +1918,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D90" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
@@ -1935,13 +1938,13 @@
         <v>63</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D91" s="0">
         <v>22</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -1952,13 +1955,13 @@
         <v>63</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D92" s="0">
         <v>35</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -1969,13 +1972,13 @@
         <v>63</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D93" s="0">
         <v>37</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -1986,13 +1989,13 @@
         <v>63</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D94" s="0">
         <v>38</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -2003,13 +2006,13 @@
         <v>63</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D95" s="0">
         <v>40</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -2020,13 +2023,13 @@
         <v>63</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D96" s="0">
         <v>74</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -2037,13 +2040,13 @@
         <v>63</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D97" s="0">
         <v>160</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -2054,13 +2057,13 @@
         <v>63</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D98" s="0">
         <v>164</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -2071,13 +2074,13 @@
         <v>63</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D99" s="0">
         <v>211</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -2088,13 +2091,13 @@
         <v>63</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D100" s="0">
         <v>298</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -2105,13 +2108,13 @@
         <v>63</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D101" s="0">
         <v>299</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -2122,13 +2125,13 @@
         <v>63</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D102" s="0">
         <v>323</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -2139,13 +2142,13 @@
         <v>63</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D103" s="0">
         <v>328</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2156,13 +2159,13 @@
         <v>63</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D104" s="0">
         <v>334</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -2173,13 +2176,13 @@
         <v>63</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D105" s="0">
         <v>337</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -2190,13 +2193,13 @@
         <v>63</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D106" s="0">
         <v>357</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -2207,13 +2210,13 @@
         <v>63</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D107" s="0">
         <v>363</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -2221,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D108" s="0">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
@@ -2241,13 +2244,13 @@
         <v>65</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D109" s="0">
-        <v>150</v>
+        <v>346</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -2261,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="0">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>8</v>
@@ -2275,13 +2278,13 @@
         <v>65</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D111" s="0">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -2289,16 +2292,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D112" s="0">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -2309,13 +2312,13 @@
         <v>67</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D113" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -2326,13 +2329,13 @@
         <v>67</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D114" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -2343,13 +2346,13 @@
         <v>67</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D115" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -2360,13 +2363,13 @@
         <v>67</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D116" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -2377,13 +2380,13 @@
         <v>67</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D117" s="0">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -2394,13 +2397,13 @@
         <v>67</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D118" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -2411,13 +2414,13 @@
         <v>67</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D119" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -2428,13 +2431,13 @@
         <v>67</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D120" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -2445,13 +2448,13 @@
         <v>67</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D121" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -2462,13 +2465,13 @@
         <v>67</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D122" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -2479,13 +2482,13 @@
         <v>67</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D123" s="0">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -2496,13 +2499,13 @@
         <v>67</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D124" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -2510,16 +2513,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D125" s="0">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -2530,13 +2533,13 @@
         <v>68</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D126" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -2547,13 +2550,13 @@
         <v>68</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D127" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -2564,13 +2567,13 @@
         <v>68</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D128" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -2581,13 +2584,13 @@
         <v>68</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D129" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -2595,16 +2598,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D130" s="0">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131">
@@ -2615,13 +2618,13 @@
         <v>69</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D131" s="0">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -2632,13 +2635,13 @@
         <v>69</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D132" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -2649,13 +2652,13 @@
         <v>69</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D133" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -2666,13 +2669,13 @@
         <v>69</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D134" s="0">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -2683,13 +2686,13 @@
         <v>69</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D135" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -2700,13 +2703,13 @@
         <v>69</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D136" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -2714,16 +2717,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D137" s="0">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138">
@@ -2731,16 +2734,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D138" s="0">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -2751,13 +2754,13 @@
         <v>73</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D139" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -2768,13 +2771,13 @@
         <v>73</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D140" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -2785,13 +2788,13 @@
         <v>73</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D141" s="0">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -2802,13 +2805,13 @@
         <v>73</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D142" s="0">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -2819,13 +2822,13 @@
         <v>73</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D143" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -2836,13 +2839,13 @@
         <v>73</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D144" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -2853,13 +2856,13 @@
         <v>73</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D145" s="0">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -2870,13 +2873,13 @@
         <v>74</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D146" s="0">
         <v>22</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -2887,13 +2890,13 @@
         <v>74</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D147" s="0">
         <v>35</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -2904,13 +2907,13 @@
         <v>74</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D148" s="0">
         <v>37</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -2921,13 +2924,13 @@
         <v>74</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D149" s="0">
         <v>38</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -2938,13 +2941,13 @@
         <v>74</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D150" s="0">
         <v>40</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -2955,13 +2958,13 @@
         <v>74</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D151" s="0">
         <v>68</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -2972,7 +2975,7 @@
         <v>75</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D152" s="0">
         <v>82</v>
@@ -3006,7 +3009,7 @@
         <v>79</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D154" s="0">
         <v>74</v>
@@ -3023,7 +3026,7 @@
         <v>79</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D155" s="0">
         <v>82</v>
@@ -3040,13 +3043,13 @@
         <v>79</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D156" s="0">
         <v>22</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -3057,13 +3060,13 @@
         <v>79</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D157" s="0">
         <v>36</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -3074,13 +3077,13 @@
         <v>79</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D158" s="0">
         <v>38</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -3091,13 +3094,13 @@
         <v>79</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D159" s="0">
         <v>39</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -3108,13 +3111,13 @@
         <v>79</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D160" s="0">
         <v>41</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -3159,13 +3162,13 @@
         <v>85</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D163" s="0">
         <v>22</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -3176,13 +3179,13 @@
         <v>85</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D164" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -3193,13 +3196,13 @@
         <v>85</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D165" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -3210,13 +3213,13 @@
         <v>85</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D166" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -3227,17 +3230,187 @@
         <v>85</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D167" s="0">
+        <v>42</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="0">
+        <v>90</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="0">
+        <v>102</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="0">
+        <v>148</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="0">
+        <v>175</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="0">
+        <v>177</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="0">
+        <v>22</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="0">
+        <v>38</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="0">
+        <v>40</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="0">
+        <v>41</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="0">
         <v>43</v>
       </c>
-      <c r="E167" s="0" t="s">
-        <v>11</v>
+      <c r="E177" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E167"/>
+  <autoFilter ref="A1:E177"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$152</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Catagory</t>
   </si>
@@ -57,7 +57,22 @@
     <t xml:space="preserve">The parameter 'RemoveText' has been declared but not used. </t>
   </si>
   <si>
-    <t>Edit-PSModulesLists.ps1</t>
+    <t>Export-CitrixPolicySettings.ps1</t>
+  </si>
+  <si>
+    <t>PSUseOutputTypeCorrectly</t>
+  </si>
+  <si>
+    <t>The cmdlet 'Export-CitrixPolicySettings' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
+    <t>Export-ESXTemplates.ps1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'ExportPath' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Get-DeviceUptime.ps1</t>
   </si>
   <si>
     <t>PSAvoidTrailingWhitespace</t>
@@ -66,24 +81,6 @@
     <t>Line has trailing whitespace</t>
   </si>
   <si>
-    <t>Export-CitrixPolicySettings.ps1</t>
-  </si>
-  <si>
-    <t>PSUseOutputTypeCorrectly</t>
-  </si>
-  <si>
-    <t>The cmdlet 'Export-CitrixPolicySettings' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Export-ESXTemplates.ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'ExportPath' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Get-DeviceUptime.ps1</t>
-  </si>
-  <si>
     <t>The cmdlet 'Get-DeviceUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
   </si>
   <si>
@@ -120,105 +117,87 @@
     <t>Get-SoftwareAudit.ps1</t>
   </si>
   <si>
-    <t>Get-SystemInfo.ps1</t>
+    <t>Get-WinEventLogExtract.ps1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'ReportPath' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Import-XamlConfigFile.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidGlobalVars</t>
+  </si>
+  <si>
+    <t>Found global variable 'global:ReadmeDisplay'.</t>
+  </si>
+  <si>
+    <t>Install-ChocolateyApps.ps1</t>
+  </si>
+  <si>
+    <t>Install-ChocolateyClient.ps1</t>
+  </si>
+  <si>
+    <t>Install-ChocolateyServer.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidUsingPositionalParameters</t>
+  </si>
+  <si>
+    <t>Cmdlet 'Set-ItemProperty' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
+  </si>
+  <si>
+    <t>Install-CitrixCloudConnector.ps1</t>
+  </si>
+  <si>
+    <t>Install-MSWinget.ps1</t>
+  </si>
+  <si>
+    <t>Install-PSModules.ps1</t>
+  </si>
+  <si>
+    <t>Cmdlet 'Write-Host' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
+  </si>
+  <si>
+    <t>New-GodModeFolder.ps1</t>
+  </si>
+  <si>
+    <t>New-PSProfile.ps1</t>
+  </si>
+  <si>
+    <t>Remove-CIMUserProfiles.ps1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'UserName' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Remove-FaultyProfileList.ps1</t>
+  </si>
+  <si>
+    <t>Remove-UserProfile.ps1</t>
+  </si>
+  <si>
+    <t>PSUseUsingScopeModifierInNewRunspaces</t>
+  </si>
+  <si>
+    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Set-PSProjectFiles.ps1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter 'mkdocs' has been declared but not used. </t>
+  </si>
+  <si>
+    <t>Set-PSToolKitSystemSettings.ps1</t>
   </si>
   <si>
     <t>PSUseDeclaredVarsMoreThanAssignments</t>
   </si>
   <si>
-    <t>The variable 'SectionSettings' is assigned but never used.</t>
-  </si>
-  <si>
-    <t>The cmdlet 'Get-SystemInfo' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Get-WinEventLogExtract.ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'ReportPath' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Import-XamlConfigFile.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidGlobalVars</t>
-  </si>
-  <si>
-    <t>Found global variable 'global:ReadmeDisplay'.</t>
-  </si>
-  <si>
-    <t>Install-ChocolateyApps.ps1</t>
-  </si>
-  <si>
-    <t>Install-ChocolateyClient.ps1</t>
-  </si>
-  <si>
-    <t>Install-ChocolateyServer.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidUsingPositionalParameters</t>
-  </si>
-  <si>
-    <t>Cmdlet 'Set-ItemProperty' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
-  </si>
-  <si>
-    <t>Install-CitrixCloudConnector.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidUsingCmdletAliases</t>
-  </si>
-  <si>
-    <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>'Get-CTXAPI_CloudConnectors' is an alias of 'Get-CTXAPI_CloudConnector'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>Install-MSWinget.ps1</t>
-  </si>
-  <si>
-    <t>Install-PSModules.ps1</t>
-  </si>
-  <si>
-    <t>Cmdlet 'Write-Host' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
-  </si>
-  <si>
-    <t>New-GodModeFolder.ps1</t>
-  </si>
-  <si>
-    <t>New-PSProfile.ps1</t>
-  </si>
-  <si>
-    <t>Remove-CIMUserProfiles.ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'UserName' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Remove-FaultyProfileList.ps1</t>
-  </si>
-  <si>
-    <t>Remove-UserProfile.ps1</t>
-  </si>
-  <si>
-    <t>PSUseUsingScopeModifierInNewRunspaces</t>
-  </si>
-  <si>
-    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Set-PSProjectFiles.ps1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The parameter 'mkdocs' has been declared but not used. </t>
-  </si>
-  <si>
-    <t>Set-PSToolKitSystemSettings.ps1</t>
-  </si>
-  <si>
     <t>The variable 'PSGet' is assigned but never used.</t>
   </si>
   <si>
@@ -238,12 +217,6 @@
   </si>
   <si>
     <t>The cmdlet 'Start-PSModuleMaintenance' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Start-PSProfile.ps1</t>
-  </si>
-  <si>
-    <t>Start-PSToolkitSystemInitialize.ps1</t>
   </si>
   <si>
     <t>Sync-PSFolders.ps1</t>
@@ -332,7 +305,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E177" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E152" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -384,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -394,7 +367,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.987193107605" customWidth="1"/>
-    <col min="2" max="2" width="31.715892791748" customWidth="1"/>
+    <col min="2" max="2" width="31.1153545379639" customWidth="1"/>
     <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="356.878753662109" customWidth="1"/>
@@ -462,7 +435,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="0">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>14</v>
@@ -473,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -490,16 +463,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -507,16 +480,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +497,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>19</v>
@@ -541,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -558,16 +531,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -575,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="0">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -592,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -609,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -626,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -643,16 +616,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="D15" s="0">
         <v>62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -660,16 +633,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -677,16 +650,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -694,16 +667,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -711,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -728,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -745,16 +718,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D21" s="0">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -762,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -779,16 +752,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -796,16 +769,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D24" s="0">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -813,16 +786,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -830,16 +803,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D26" s="0">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -847,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D27" s="0">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -864,16 +837,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -881,16 +854,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D29" s="0">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -898,16 +871,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -915,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D31" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -932,16 +905,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D32" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -949,16 +922,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D33" s="0">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -966,16 +939,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -983,16 +956,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1000,16 +973,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36" s="0">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1017,16 +990,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D37" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1034,16 +1007,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D38" s="0">
         <v>38</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1051,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0">
         <v>40</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1068,16 +1041,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40" s="0">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -1085,16 +1058,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" s="0">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1102,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D42" s="0">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1119,16 +1092,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D43" s="0">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1136,16 +1109,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1153,16 +1126,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -1170,16 +1143,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -1187,16 +1160,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -1204,16 +1177,16 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -1221,16 +1194,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -1238,16 +1211,16 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1255,16 +1228,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D51" s="0">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1272,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D52" s="0">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -1289,16 +1262,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D53" s="0">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -1306,16 +1279,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D54" s="0">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -1323,16 +1296,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D55" s="0">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -1340,16 +1313,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1357,16 +1330,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1374,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D58" s="0">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -1394,13 +1367,13 @@
         <v>44</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -1408,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D60" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1425,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D61" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1442,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D62" s="0">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -1459,16 +1432,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D63" s="0">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -1476,16 +1449,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D64" s="0">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -1496,13 +1469,13 @@
         <v>47</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D65" s="0">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -1513,13 +1486,13 @@
         <v>47</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D66" s="0">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1527,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D67" s="0">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -1544,16 +1517,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D68" s="0">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1561,16 +1534,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D69" s="0">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1578,16 +1551,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D70" s="0">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
@@ -1595,16 +1568,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D71" s="0">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -1612,16 +1585,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D72" s="0">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1629,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D73" s="0">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
@@ -1646,16 +1619,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D74" s="0">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
@@ -1663,16 +1636,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D75" s="0">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -1680,16 +1653,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D76" s="0">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -1697,16 +1670,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D77" s="0">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78">
@@ -1714,16 +1687,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D78" s="0">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
@@ -1734,13 +1707,13 @@
         <v>55</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D79" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -1751,13 +1724,13 @@
         <v>55</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D80" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -1765,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -1782,16 +1755,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D82" s="0">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -1799,16 +1772,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D83" s="0">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -1816,16 +1789,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D84" s="0">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -1833,16 +1806,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D85" s="0">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -1850,16 +1823,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D86" s="0">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -1867,16 +1840,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D87" s="0">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -1884,16 +1857,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D88" s="0">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -1901,16 +1874,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D89" s="0">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -1918,16 +1891,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D90" s="0">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -1935,16 +1908,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D91" s="0">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -1952,16 +1925,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D92" s="0">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -1969,16 +1942,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D93" s="0">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -1986,16 +1959,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D94" s="0">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -2003,16 +1976,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D95" s="0">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -2020,16 +1993,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D96" s="0">
         <v>74</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97">
@@ -2037,16 +2010,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D97" s="0">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98">
@@ -2054,16 +2027,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D98" s="0">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -2071,16 +2044,16 @@
         <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D99" s="0">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2088,16 +2061,16 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D100" s="0">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -2105,16 +2078,16 @@
         <v>5</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D101" s="0">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -2122,16 +2095,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D102" s="0">
-        <v>323</v>
+        <v>36</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2139,16 +2112,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D103" s="0">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -2156,16 +2129,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D104" s="0">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -2173,16 +2146,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D105" s="0">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -2190,16 +2163,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D106" s="0">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -2207,16 +2180,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D107" s="0">
-        <v>363</v>
+        <v>120</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -2224,16 +2197,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D108" s="0">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -2241,16 +2214,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D109" s="0">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -2258,16 +2231,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D110" s="0">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -2275,16 +2248,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D111" s="0">
-        <v>388</v>
+        <v>137</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
@@ -2292,16 +2265,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D112" s="0">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
@@ -2309,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D113" s="0">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -2326,16 +2299,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D114" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
@@ -2343,16 +2316,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D115" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
@@ -2360,16 +2333,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D116" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
@@ -2377,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D117" s="0">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
@@ -2394,16 +2367,16 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D118" s="0">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -2411,16 +2384,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D119" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120">
@@ -2428,16 +2401,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D120" s="0">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -2445,16 +2418,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D121" s="0">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -2462,16 +2435,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D122" s="0">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
@@ -2479,16 +2452,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D123" s="0">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
@@ -2496,16 +2469,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D124" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -2513,16 +2486,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D125" s="0">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -2530,16 +2503,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="0">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127">
@@ -2547,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D127" s="0">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
@@ -2570,10 +2543,10 @@
         <v>13</v>
       </c>
       <c r="D128" s="0">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129">
@@ -2581,16 +2554,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D129" s="0">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130">
@@ -2598,16 +2571,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D130" s="0">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131">
@@ -2615,16 +2588,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D131" s="0">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
@@ -2632,16 +2605,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D132" s="0">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -2649,16 +2622,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D133" s="0">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
@@ -2666,16 +2639,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D134" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -2683,16 +2656,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D135" s="0">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -2700,16 +2673,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="0">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
@@ -2717,16 +2690,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D137" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138">
@@ -2734,16 +2707,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D138" s="0">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -2751,16 +2724,16 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D139" s="0">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -2768,16 +2741,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D140" s="0">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
@@ -2785,16 +2758,16 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D141" s="0">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -2802,16 +2775,16 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D142" s="0">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
@@ -2819,16 +2792,16 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D143" s="0">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
@@ -2836,16 +2809,16 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D144" s="0">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -2853,16 +2826,16 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D145" s="0">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -2870,16 +2843,16 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D146" s="0">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -2887,16 +2860,16 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D147" s="0">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -2904,16 +2877,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D148" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -2921,16 +2894,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D149" s="0">
         <v>38</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -2938,16 +2911,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D150" s="0">
         <v>40</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
@@ -2955,16 +2928,16 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D151" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152">
@@ -2972,445 +2945,20 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D152" s="0">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="0">
-        <v>116</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D154" s="0">
-        <v>74</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="0">
-        <v>82</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="0">
-        <v>22</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="0">
-        <v>36</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="0">
-        <v>38</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="0">
-        <v>39</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D160" s="0">
-        <v>41</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="0">
-        <v>123</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="0">
-        <v>135</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="0">
-        <v>22</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="0">
-        <v>37</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="0">
-        <v>39</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="0">
-        <v>40</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="0">
-        <v>42</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="0">
-        <v>90</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" s="0">
-        <v>102</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="0">
-        <v>148</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="0">
-        <v>175</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" s="0">
-        <v>177</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" s="0">
-        <v>22</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="0">
-        <v>38</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="0">
-        <v>40</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D176" s="0">
-        <v>41</v>
-      </c>
-      <c r="E176" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D177" s="0">
-        <v>43</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E177"/>
+  <autoFilter ref="A1:E152"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,9 +7,11 @@
   <sheets>
     <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Catagory</t>
   </si>
@@ -75,15 +77,15 @@
     <t>Get-DeviceUptime.ps1</t>
   </si>
   <si>
+    <t>The cmdlet 'Get-DeviceUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
     <t>PSAvoidTrailingWhitespace</t>
   </si>
   <si>
     <t>Line has trailing whitespace</t>
   </si>
   <si>
-    <t>The cmdlet 'Get-DeviceUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
     <t>Get-FQDN.ps1</t>
   </si>
   <si>
@@ -150,6 +152,15 @@
     <t>Install-CitrixCloudConnector.ps1</t>
   </si>
   <si>
+    <t>PSAvoidUsingCmdletAliases</t>
+  </si>
+  <si>
+    <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
+    <t>'Get-CTXAPI_CloudConnectors' is an alias of 'Get-CTXAPI_CloudConnector'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
     <t>Install-MSWinget.ps1</t>
   </si>
   <si>
@@ -177,15 +188,15 @@
     <t>Remove-UserProfile.ps1</t>
   </si>
   <si>
+    <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
+  </si>
+  <si>
     <t>PSUseUsingScopeModifierInNewRunspaces</t>
   </si>
   <si>
     <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
   </si>
   <si>
-    <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
-  </si>
-  <si>
     <t>Set-PSProjectFiles.ps1</t>
   </si>
   <si>
@@ -225,6 +236,12 @@
     <t xml:space="preserve">The parameter 'LogPath' has been declared but not used. </t>
   </si>
   <si>
+    <t>PSAvoidOverwritingBuiltInCmdlets</t>
+  </si>
+  <si>
+    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
+  </si>
+  <si>
     <t>Test-CitrixVDAPorts.ps1</t>
   </si>
   <si>
@@ -253,6 +270,21 @@
   </si>
   <si>
     <t>Write-PSToolKitLog.ps1</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFiles</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -291,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -305,7 +338,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E152" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E155" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -357,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -366,11 +399,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
-    <col min="2" max="2" width="31.1153545379639" customWidth="1"/>
-    <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
+    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
+    <col min="2" max="2" width="31.115354537963867" customWidth="1"/>
+    <col min="3" max="3" width="39.50345993041992" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="356.878753662109" customWidth="1"/>
+    <col min="5" max="5" width="356.8787536621094" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,13 +499,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0">
+        <v>90</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="0">
-        <v>22</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -483,13 +516,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +533,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -517,13 +550,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -534,13 +567,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -551,10 +584,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>20</v>
@@ -653,13 +686,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="0">
         <v>100</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +720,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D19" s="0">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -704,13 +737,13 @@
         <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +754,13 @@
         <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -738,13 +771,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -755,13 +788,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -772,13 +805,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="0">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +822,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="0">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -806,13 +839,13 @@
         <v>34</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D26" s="0">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -823,13 +856,13 @@
         <v>34</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D27" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -840,13 +873,13 @@
         <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="0">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -857,13 +890,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="0">
         <v>38</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -874,13 +907,13 @@
         <v>37</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0">
         <v>40</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -891,13 +924,13 @@
         <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="0">
         <v>41</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -908,13 +941,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="0">
         <v>43</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -925,13 +958,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="0">
         <v>48</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -942,13 +975,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="0">
         <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -959,13 +992,13 @@
         <v>38</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="0">
         <v>22</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -976,13 +1009,13 @@
         <v>38</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" s="0">
         <v>35</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -993,13 +1026,13 @@
         <v>38</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="0">
         <v>37</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1010,13 +1043,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="0">
         <v>38</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1027,13 +1060,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="0">
         <v>40</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1044,13 +1077,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="0">
         <v>73</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1061,13 +1094,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="0">
         <v>74</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1078,13 +1111,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="0">
         <v>75</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1112,13 +1145,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D44" s="0">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1129,13 +1162,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D45" s="0">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1146,13 +1179,13 @@
         <v>39</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D46" s="0">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1163,13 +1196,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D47" s="0">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1180,13 +1213,13 @@
         <v>39</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1197,13 +1230,13 @@
         <v>39</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -1214,13 +1247,13 @@
         <v>39</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D50" s="0">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -1231,13 +1264,13 @@
         <v>39</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D51" s="0">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -1248,13 +1281,13 @@
         <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D52" s="0">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -1265,13 +1298,13 @@
         <v>42</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" s="0">
         <v>88</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1282,13 +1315,13 @@
         <v>42</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" s="0">
         <v>89</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -1299,13 +1332,13 @@
         <v>42</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="0">
         <v>97</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1313,16 +1346,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D56" s="0">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
@@ -1330,16 +1363,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D57" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -1347,16 +1380,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" s="0">
         <v>92</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1364,16 +1397,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1384,13 +1417,13 @@
         <v>46</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D60" s="0">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1398,16 +1431,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D61" s="0">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -1415,16 +1448,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1432,16 +1465,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1449,16 +1482,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1466,16 +1499,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -1483,16 +1516,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -1500,16 +1533,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -1517,16 +1550,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1534,16 +1567,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -1551,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D70" s="0">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -1571,13 +1604,13 @@
         <v>50</v>
       </c>
       <c r="C71" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="0">
         <v>40</v>
       </c>
-      <c r="D71" s="0">
-        <v>72</v>
-      </c>
       <c r="E71" s="0" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -1585,16 +1618,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D72" s="0">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
@@ -1602,16 +1635,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D73" s="0">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -1619,16 +1652,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D74" s="0">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -1636,16 +1669,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D75" s="0">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76">
@@ -1653,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D76" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
@@ -1670,16 +1703,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D77" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
@@ -1687,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>10</v>
@@ -1696,7 +1729,7 @@
         <v>72</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79">
@@ -1704,16 +1737,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D79" s="0">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -1721,16 +1754,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D80" s="0">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81">
@@ -1738,16 +1771,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -1755,16 +1788,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -1772,16 +1805,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -1789,16 +1822,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" s="0">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -1806,16 +1839,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" s="0">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
@@ -1823,16 +1856,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" s="0">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -1840,16 +1873,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" s="0">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -1857,16 +1890,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" s="0">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -1874,16 +1907,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" s="0">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -1891,16 +1924,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" s="0">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -1908,16 +1941,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" s="0">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -1925,16 +1958,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" s="0">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -1942,16 +1975,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" s="0">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -1959,16 +1992,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" s="0">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -1976,16 +2009,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" s="0">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -1993,16 +2026,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D96" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -2010,16 +2043,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D97" s="0">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -2027,16 +2060,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D98" s="0">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99">
@@ -2044,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>7</v>
@@ -2061,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>7</v>
@@ -2081,13 +2114,13 @@
         <v>60</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" s="0">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -2098,13 +2131,13 @@
         <v>60</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D102" s="0">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103">
@@ -2112,16 +2145,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2129,16 +2162,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -2146,16 +2179,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -2163,16 +2196,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106" s="0">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -2180,16 +2213,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" s="0">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -2197,16 +2230,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" s="0">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -2214,16 +2247,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109" s="0">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -2231,16 +2264,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" s="0">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -2248,16 +2281,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D111" s="0">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -2265,16 +2298,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -2282,16 +2315,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="0">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -2299,16 +2332,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114" s="0">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -2316,16 +2349,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D115" s="0">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -2333,16 +2366,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -2350,16 +2383,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -2367,16 +2400,16 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -2384,16 +2417,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D119" s="0">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
@@ -2401,16 +2434,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120" s="0">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
@@ -2418,16 +2451,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" s="0">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
@@ -2435,16 +2468,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
@@ -2452,16 +2485,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D123" s="0">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
@@ -2469,16 +2502,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -2486,16 +2519,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
@@ -2503,16 +2536,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D126" s="0">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
@@ -2520,16 +2553,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="0">
+        <v>132</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="0">
-        <v>82</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="128">
@@ -2537,16 +2570,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129">
@@ -2554,16 +2587,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="0">
+        <v>82</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D129" s="0">
-        <v>74</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="130">
@@ -2571,16 +2604,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D130" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131">
@@ -2588,16 +2621,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D131" s="0">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132">
@@ -2605,16 +2638,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -2622,16 +2655,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
@@ -2639,16 +2672,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D134" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
@@ -2656,16 +2689,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D135" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -2673,16 +2706,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D136" s="0">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137">
@@ -2690,16 +2723,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="0">
         <v>74</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="0">
-        <v>135</v>
-      </c>
       <c r="E137" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
@@ -2707,16 +2740,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="0">
+        <v>82</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="0">
-        <v>22</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -2724,16 +2757,16 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D139" s="0">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140">
@@ -2741,16 +2774,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D140" s="0">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
@@ -2758,16 +2791,16 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D141" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -2775,16 +2808,16 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
@@ -2792,16 +2825,16 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143" s="0">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144">
@@ -2809,16 +2842,16 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144" s="0">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
@@ -2826,16 +2859,16 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D145" s="0">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
@@ -2843,16 +2876,16 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D146" s="0">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
@@ -2860,16 +2893,16 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D147" s="0">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
@@ -2877,16 +2910,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D148" s="0">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
@@ -2894,16 +2927,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D149" s="0">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -2911,16 +2944,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D150" s="0">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
@@ -2928,16 +2961,16 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D151" s="0">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -2945,20 +2978,71 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D152" s="0">
+        <v>38</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="0">
+        <v>40</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="0">
+        <v>41</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="0">
         <v>43</v>
       </c>
-      <c r="E152" s="0" t="s">
-        <v>19</v>
+      <c r="E155" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E152"/>
+  <autoFilter ref="A1:E155"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2972,4 +3056,59 @@
   <sheetData/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
+    <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
+    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,11 +7,9 @@
   <sheets>
     <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
-    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$152</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Catagory</t>
   </si>
@@ -77,15 +75,15 @@
     <t>Get-DeviceUptime.ps1</t>
   </si>
   <si>
+    <t>PSAvoidTrailingWhitespace</t>
+  </si>
+  <si>
+    <t>Line has trailing whitespace</t>
+  </si>
+  <si>
     <t>The cmdlet 'Get-DeviceUptime' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
   </si>
   <si>
-    <t>PSAvoidTrailingWhitespace</t>
-  </si>
-  <si>
-    <t>Line has trailing whitespace</t>
-  </si>
-  <si>
     <t>Get-FQDN.ps1</t>
   </si>
   <si>
@@ -152,15 +150,6 @@
     <t>Install-CitrixCloudConnector.ps1</t>
   </si>
   <si>
-    <t>PSAvoidUsingCmdletAliases</t>
-  </si>
-  <si>
-    <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>'Get-CTXAPI_CloudConnectors' is an alias of 'Get-CTXAPI_CloudConnector'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
     <t>Install-MSWinget.ps1</t>
   </si>
   <si>
@@ -188,15 +177,15 @@
     <t>Remove-UserProfile.ps1</t>
   </si>
   <si>
+    <t>PSUseUsingScopeModifierInNewRunspaces</t>
+  </si>
+  <si>
+    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The parameter 'using:using:UserName' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSUseUsingScopeModifierInNewRunspaces</t>
-  </si>
-  <si>
-    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
-  </si>
-  <si>
     <t>Set-PSProjectFiles.ps1</t>
   </si>
   <si>
@@ -236,12 +225,6 @@
     <t xml:space="preserve">The parameter 'LogPath' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSAvoidOverwritingBuiltInCmdlets</t>
-  </si>
-  <si>
-    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
-  </si>
-  <si>
     <t>Test-CitrixVDAPorts.ps1</t>
   </si>
   <si>
@@ -270,21 +253,6 @@
   </si>
   <si>
     <t>Write-PSToolKitLog.ps1</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFiles</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -323,9 +291,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -338,7 +305,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E155" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E152" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -390,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -399,11 +366,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
-    <col min="2" max="2" width="31.115354537963867" customWidth="1"/>
-    <col min="3" max="3" width="39.50345993041992" customWidth="1"/>
+    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
+    <col min="2" max="2" width="31.1153545379639" customWidth="1"/>
+    <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="356.8787536621094" customWidth="1"/>
+    <col min="5" max="5" width="356.878753662109" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,13 +466,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -516,13 +483,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +500,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -550,13 +517,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +534,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +551,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>20</v>
@@ -686,13 +653,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0">
         <v>100</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -720,13 +687,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0">
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -737,13 +704,13 @@
         <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="0">
         <v>36</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -754,13 +721,13 @@
         <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="0">
         <v>38</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -771,13 +738,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0">
         <v>39</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -788,13 +755,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0">
         <v>41</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -805,13 +772,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="0">
         <v>89</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -822,13 +789,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0">
         <v>117</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -873,13 +840,13 @@
         <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -890,13 +857,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="0">
         <v>38</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -907,13 +874,13 @@
         <v>37</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0">
         <v>40</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -924,13 +891,13 @@
         <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="0">
         <v>41</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -941,13 +908,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="0">
         <v>43</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +925,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="0">
         <v>48</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -975,13 +942,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0">
         <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -992,13 +959,13 @@
         <v>38</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D35" s="0">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1009,13 +976,13 @@
         <v>38</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1026,13 +993,13 @@
         <v>38</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1043,13 +1010,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1060,13 +1027,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1077,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="0">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -1094,13 +1061,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1111,13 +1078,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1128,13 +1095,13 @@
         <v>38</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D43" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1145,13 +1112,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1162,13 +1129,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -1179,13 +1146,13 @@
         <v>39</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -1196,13 +1163,13 @@
         <v>39</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -1213,13 +1180,13 @@
         <v>39</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -1230,13 +1197,13 @@
         <v>39</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -1247,13 +1214,13 @@
         <v>39</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1264,13 +1231,13 @@
         <v>39</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D51" s="0">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1281,13 +1248,13 @@
         <v>39</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="0">
         <v>40</v>
       </c>
-      <c r="D52" s="0">
-        <v>127</v>
-      </c>
       <c r="E52" s="0" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -1298,13 +1265,13 @@
         <v>42</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="0">
         <v>88</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -1315,13 +1282,13 @@
         <v>42</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="0">
         <v>89</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -1332,13 +1299,13 @@
         <v>42</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="0">
         <v>97</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -1346,16 +1313,16 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1363,16 +1330,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1380,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="0">
         <v>92</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -1397,16 +1364,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D59" s="0">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -1417,13 +1384,13 @@
         <v>46</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D60" s="0">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1431,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D61" s="0">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1448,16 +1415,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -1465,16 +1432,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -1482,16 +1449,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -1499,16 +1466,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -1516,16 +1483,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1533,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -1550,16 +1517,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1567,16 +1534,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1584,16 +1551,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D70" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
@@ -1604,13 +1571,13 @@
         <v>50</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D71" s="0">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -1618,16 +1585,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D72" s="0">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1635,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D73" s="0">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
@@ -1652,16 +1619,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D74" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
@@ -1669,16 +1636,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D75" s="0">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -1686,16 +1653,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="0">
+        <v>72</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="0">
-        <v>85</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="77">
@@ -1703,16 +1670,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D77" s="0">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
@@ -1720,16 +1687,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D78" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -1737,16 +1704,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="0">
         <v>22</v>
       </c>
-      <c r="D79" s="0">
-        <v>64</v>
-      </c>
       <c r="E79" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -1754,16 +1721,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D80" s="0">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -1771,16 +1738,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -1788,16 +1755,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -1805,16 +1772,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -1822,16 +1789,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" s="0">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -1839,16 +1806,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" s="0">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -1856,16 +1823,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" s="0">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -1873,16 +1840,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" s="0">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -1890,16 +1857,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88" s="0">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -1907,16 +1874,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89" s="0">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -1924,16 +1891,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" s="0">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -1941,16 +1908,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" s="0">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -1958,16 +1925,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" s="0">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -1975,16 +1942,16 @@
         <v>5</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" s="0">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -1992,16 +1959,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" s="0">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -2009,16 +1976,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" s="0">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -2026,16 +1993,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D96" s="0">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97">
@@ -2043,16 +2010,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D97" s="0">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98">
@@ -2060,16 +2027,16 @@
         <v>5</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D98" s="0">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -2077,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>7</v>
@@ -2094,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>7</v>
@@ -2114,13 +2081,13 @@
         <v>60</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101" s="0">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -2131,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D102" s="0">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2145,16 +2112,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -2162,16 +2129,16 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -2179,16 +2146,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -2196,16 +2163,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" s="0">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
@@ -2213,16 +2180,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" s="0">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -2230,16 +2197,16 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" s="0">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -2247,16 +2214,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" s="0">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -2264,16 +2231,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -2281,16 +2248,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" s="0">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
@@ -2298,16 +2265,16 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
@@ -2315,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" s="0">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -2332,16 +2299,16 @@
         <v>5</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D114" s="0">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
@@ -2349,16 +2316,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D115" s="0">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
@@ -2366,16 +2333,16 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
@@ -2383,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
@@ -2400,16 +2367,16 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D118" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -2417,16 +2384,16 @@
         <v>5</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D119" s="0">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120">
@@ -2434,16 +2401,16 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="0">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -2451,16 +2418,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D121" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -2468,16 +2435,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
@@ -2485,16 +2452,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" s="0">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
@@ -2502,16 +2469,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D124" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -2519,16 +2486,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
@@ -2536,16 +2503,16 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="0">
+        <v>132</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="0">
-        <v>164</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="127">
@@ -2553,16 +2520,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D127" s="0">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
@@ -2570,16 +2537,16 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="0">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129">
@@ -2587,16 +2554,16 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D129" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130">
@@ -2604,16 +2571,16 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="0">
+        <v>82</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="D130" s="0">
-        <v>75</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="131">
@@ -2621,16 +2588,16 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D131" s="0">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
@@ -2638,16 +2605,16 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D132" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -2655,16 +2622,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D133" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
@@ -2672,16 +2639,16 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135">
@@ -2689,16 +2656,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
@@ -2706,16 +2673,16 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D136" s="0">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
@@ -2723,16 +2690,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="0">
+        <v>135</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D137" s="0">
-        <v>74</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="138">
@@ -2740,16 +2707,16 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D138" s="0">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -2757,16 +2724,16 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D139" s="0">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
@@ -2774,16 +2741,16 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D140" s="0">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
@@ -2791,16 +2758,16 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D141" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -2808,16 +2775,16 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D142" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
@@ -2825,16 +2792,16 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D143" s="0">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
@@ -2842,16 +2809,16 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" s="0">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145">
@@ -2859,16 +2826,16 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" s="0">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
@@ -2876,16 +2843,16 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D146" s="0">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -2893,16 +2860,16 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D147" s="0">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
@@ -2910,16 +2877,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D148" s="0">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -2927,16 +2894,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D149" s="0">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -2944,16 +2911,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D150" s="0">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
@@ -2961,16 +2928,16 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D151" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152">
@@ -2978,71 +2945,20 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="0">
-        <v>40</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="0">
-        <v>41</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="0">
-        <v>43</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E155"/>
+  <autoFilter ref="A1:E152"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3056,59 +2972,4 @@
   <sheetData/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
-    <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
-    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,9 +7,11 @@
   <sheets>
     <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Catagory</t>
   </si>
@@ -169,6 +171,21 @@
   </si>
   <si>
     <t>The cmdlet 'Update-PSScriptInfo' returns an object of type 'System.Collections.Hashtable' but this type is not declared in the OutputType attribute.</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFiles</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -207,8 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -882,4 +900,59 @@
   <sheetData/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="2" max="2" width="17.1003818511963" customWidth="1"/>
+    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,9 +7,11 @@
   <sheets>
     <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Catagory</t>
   </si>
@@ -39,34 +41,22 @@
     <t>ScriptAnalyzer</t>
   </si>
   <si>
-    <t>Add-ChocolateyPrivateRepo.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidUsingInvokeExpression</t>
-  </si>
-  <si>
-    <t>Invoke-Expression is used. Please remove Invoke-Expression from script and find other options instead.</t>
-  </si>
-  <si>
-    <t>Export-CitrixPolicySettings.ps1</t>
-  </si>
-  <si>
-    <t>PSUseOutputTypeCorrectly</t>
-  </si>
-  <si>
-    <t>The cmdlet 'Export-CitrixPolicySettings' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Get-FQDN.ps1</t>
-  </si>
-  <si>
-    <t>PSUseProcessBlockForPipelineCommand</t>
-  </si>
-  <si>
-    <t>Command accepts pipeline input but has not defined a process block.</t>
-  </si>
-  <si>
-    <t>Get-PropertiesToCSV.ps1</t>
+    <t>Edit-ChocolateyAppsList.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidTrailingWhitespace</t>
+  </si>
+  <si>
+    <t>Line has trailing whitespace</t>
+  </si>
+  <si>
+    <t>Get-DeviceUptime.ps1</t>
+  </si>
+  <si>
+    <t>Get-SoftwareAudit.ps1</t>
+  </si>
+  <si>
+    <t>Get-WinEventLogExtract.ps1</t>
   </si>
   <si>
     <t>Import-XamlConfigFile.ps1</t>
@@ -81,67 +71,214 @@
     <t>Install-ChocolateyServer.ps1</t>
   </si>
   <si>
-    <t>PSAvoidUsingPositionalParameters</t>
-  </si>
-  <si>
-    <t>Cmdlet 'Set-ItemProperty' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
-  </si>
-  <si>
-    <t>Install-MSWinget.ps1</t>
+    <t>PSUseShouldProcessForStateChangingFunctions</t>
+  </si>
+  <si>
+    <t>Function 'New-AclObject' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Install-CitrixCloudConnector.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidUsingCmdletAliases</t>
+  </si>
+  <si>
+    <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
+    <t>'Get-CTXAPI_CloudConnectors' is an alias of 'Get-CTXAPI_CloudConnector'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
+  </si>
+  <si>
+    <t>New-CitrixSiteConfigFile.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-CitrixSiteConfigFile' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>New-ElevatedShortcut.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-ElevatedShortcut' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>New-GodModeFolder.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-GodModeFolder' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>New-PSModule.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-PSModule' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>New-PSProfile.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-PSProfile' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>New-PSScript.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-PSScript' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Remove-CIMUserProfiles.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Remove-CIMUserProfiles' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
     <t>Remove-FaultyProfileList.ps1</t>
   </si>
   <si>
-    <t>Cmdlet 'Write-Host' has positional parameter. Please use named parameters instead of positional parameters when calling a command.</t>
+    <t>Function 'Remove-FaultyProfileList' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Remove-HiddenDevices.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Remove-HiddenDevices' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
     <t>Remove-UserProfile.ps1</t>
   </si>
   <si>
-    <t>PSUseUsingScopeModifierInNewRunspaces</t>
-  </si>
-  <si>
-    <t>The variable '$using:using:UserName' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
-  </si>
-  <si>
-    <t>Show-PSToolKit.ps1</t>
-  </si>
-  <si>
-    <t>PSUseDeclaredVarsMoreThanAssignments</t>
-  </si>
-  <si>
-    <t>The variable 'TableSettings' is assigned but never used.</t>
+    <t>Function 'Remove-UserProfile' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFiles.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Set-PSProjectFiles' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Set-PSToolKitSystemSettings.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Set-PSToolKitSystemSettings' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Set-SharedPSProfile.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Set-SharedPSProfile' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Set-StaticIP.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Set-StaticIP' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Set-TempFolder.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Set-TempFolder' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Set-WindowsAutoLogin.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Set-WindowsAutoLogin' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Show-ComputerManagement.ps1</t>
   </si>
   <si>
     <t>Start-PSModuleMaintenance.ps1</t>
   </si>
   <si>
-    <t>The cmdlet 'Start-PSModuleMaintenance' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Test-CitrixVDAPorts.ps1</t>
-  </si>
-  <si>
-    <t>The cmdlet 'Test-CitrixVDAPorts' returns an object of type 'System.Object[]' but this type is not declared in the OutputType attribute.</t>
-  </si>
-  <si>
-    <t>Test-PSRemote.ps1</t>
-  </si>
-  <si>
-    <t>The variable '$env:COMPUTERNAME' is not declared within this ScriptBlock, and is missing the 'Using:' scope modifier.</t>
+    <t>Function 'Start-PSModuleMaintenance' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Start-PSProfile.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Start-PSProfile' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Start-PSRoboCopy.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Start-PSRoboCopy' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Start-PSToolkitSystemInitialize.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Start-PSToolkitSystemInitialize' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Sync-PSFolders.ps1</t>
+  </si>
+  <si>
+    <t>PSAvoidOverwritingBuiltInCmdlets</t>
+  </si>
+  <si>
+    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
+  </si>
+  <si>
+    <t>Update-ListOfDDCs.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Update-ListOfDDCs' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Update-LocalHelp.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Update-LocalHelp' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
     <t>Update-PSModuleInfo.ps1</t>
   </si>
   <si>
-    <t>The cmdlet 'Update-PSModuleInfo' returns an object of type 'System.Collections.Hashtable' but this type is not declared in the OutputType attribute.</t>
+    <t>Function 'Update-PSModuleInfo' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
     <t>Update-PSScriptInfo.ps1</t>
   </si>
   <si>
-    <t>The cmdlet 'Update-PSScriptInfo' returns an object of type 'System.Collections.Hashtable' but this type is not declared in the OutputType attribute.</t>
+    <t>Function 'Update-PSScriptInfo' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Update-PSToolKit.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Update-PSToolKit' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Update-PSToolKitConfigFiles.ps1</t>
+  </si>
+  <si>
+    <t>Function 'Update-PSToolKitConfigFiles' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Write-PSToolKitLog.ps1</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFiles</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -180,8 +317,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -194,7 +332,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E27" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E91" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -246,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -255,11 +393,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
-    <col min="2" max="2" width="30.4319458007813" customWidth="1"/>
-    <col min="3" max="3" width="39.5034599304199" customWidth="1"/>
+    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
+    <col min="2" max="2" width="31.715892791748047" customWidth="1"/>
+    <col min="3" max="3" width="43.569122314453125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="132.035614013672" customWidth="1"/>
+    <col min="5" max="5" width="177.21006774902344" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -290,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="0">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
@@ -304,13 +442,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -318,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -335,16 +473,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -352,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -369,16 +507,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -386,16 +524,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -403,16 +541,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -420,16 +558,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -437,16 +575,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -454,13 +592,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="0">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
@@ -471,13 +609,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="0">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
@@ -488,16 +626,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -505,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -522,16 +660,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -539,16 +677,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -556,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="0">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>14</v>
@@ -573,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -590,16 +728,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -607,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -624,16 +762,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -641,16 +779,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -658,16 +796,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D24" s="0">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -675,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="0">
         <v>35</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="0">
-        <v>82</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -692,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="0">
         <v>37</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0">
-        <v>123</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -709,20 +847,1108 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="0">
+        <v>38</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="0">
+        <v>40</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="0">
+        <v>54</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="0">
+        <v>68</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="0">
+        <v>22</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="0">
+        <v>34</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="0">
+        <v>40</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="0">
+        <v>57</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="0">
+        <v>71</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="0">
+        <v>59</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="0">
+        <v>57</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="0">
+        <v>96</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="0">
-        <v>135</v>
-      </c>
-      <c r="E27" s="0" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="C39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="0">
+        <v>59</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="0">
+        <v>384</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="0">
+        <v>63</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="0">
+        <v>398</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="0">
+        <v>103</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="0">
+        <v>56</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="0">
+        <v>62</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="0">
+        <v>53</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="0">
+        <v>22</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="0">
+        <v>36</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0">
+        <v>38</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="0">
+        <v>39</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0">
+        <v>41</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="0">
+        <v>116</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="0">
+        <v>120</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0">
+        <v>130</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0">
+        <v>134</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0">
+        <v>136</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0">
+        <v>137</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="0">
+        <v>140</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="0">
+        <v>142</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="0">
+        <v>69</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="0">
+        <v>22</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="0">
+        <v>37</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="0">
+        <v>39</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="0">
+        <v>40</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="0">
+        <v>42</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="0">
+        <v>69</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="0">
+        <v>68</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="0">
+        <v>79</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="0">
+        <v>60</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="0">
+        <v>75</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="0">
+        <v>64</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="0">
+        <v>53</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="0">
+        <v>71</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="0">
+        <v>71</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="0">
+        <v>52</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="0">
+        <v>22</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="0">
+        <v>37</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="0">
+        <v>39</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="0">
+        <v>40</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="0">
+        <v>42</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="0">
+        <v>90</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="0">
+        <v>102</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="0">
+        <v>148</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="0">
+        <v>175</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0">
+        <v>177</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="0">
+        <v>73</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="0">
+        <v>22</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="0">
+        <v>38</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="0">
+        <v>40</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="0">
+        <v>41</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="0">
+        <v>43</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27"/>
+  <autoFilter ref="A1:E91"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -736,4 +1962,70 @@
   <sheetData/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
+    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Catagory</t>
   </si>
@@ -125,6 +125,12 @@
     <t>Function 'New-PSScript' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
+    <t>New-SuggestedInfraNames.ps1</t>
+  </si>
+  <si>
+    <t>Function 'New-SuggestedInfraNames' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
     <t>Remove-CIMUserProfiles.ps1</t>
   </si>
   <si>
@@ -266,10 +272,13 @@
     <t>External Help</t>
   </si>
   <si>
+    <t>New-SuggestedInfraNames</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
     <t>Set-PSProjectFiles</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -332,7 +341,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E91" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E92" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -384,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -1006,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>35</v>
@@ -1023,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>37</v>
@@ -1040,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="0">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>39</v>
@@ -1057,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>41</v>
@@ -1071,13 +1080,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D40" s="0">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -1085,16 +1094,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D41" s="0">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1105,13 +1114,13 @@
         <v>44</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0">
-        <v>398</v>
+        <v>63</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1119,16 +1128,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D43" s="0">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1142,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="0">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>47</v>
@@ -1159,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>49</v>
@@ -1176,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>51</v>
@@ -1190,13 +1199,13 @@
         <v>52</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D47" s="0">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -1204,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
@@ -1221,13 +1230,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -1238,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
@@ -1255,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
@@ -1272,13 +1281,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="0">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
@@ -1289,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="0">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
@@ -1306,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="0">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
@@ -1323,13 +1332,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="0">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
@@ -1340,13 +1349,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
@@ -1357,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -1374,13 +1383,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="0">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
@@ -1391,13 +1400,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
@@ -1408,16 +1417,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D60" s="0">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1428,13 +1437,13 @@
         <v>54</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D61" s="0">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -1442,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
@@ -1459,13 +1468,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>8</v>
@@ -1476,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>8</v>
@@ -1493,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>8</v>
@@ -1510,16 +1519,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D66" s="0">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1533,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>58</v>
@@ -1550,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="0">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>60</v>
@@ -1567,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="0">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>62</v>
@@ -1581,13 +1590,13 @@
         <v>63</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="0">
+        <v>60</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="D70" s="0">
-        <v>75</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -1595,13 +1604,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D71" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>67</v>
@@ -1618,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>69</v>
@@ -1635,7 +1644,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="0">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>71</v>
@@ -1669,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="0">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>75</v>
@@ -1683,13 +1692,13 @@
         <v>76</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D76" s="0">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -1697,13 +1706,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>8</v>
@@ -1714,13 +1723,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>8</v>
@@ -1731,13 +1740,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>8</v>
@@ -1748,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>8</v>
@@ -1765,13 +1774,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="0">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>8</v>
@@ -1782,13 +1791,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="0">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>8</v>
@@ -1799,13 +1808,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>8</v>
@@ -1816,13 +1825,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="0">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>8</v>
@@ -1833,13 +1842,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="0">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>8</v>
@@ -1850,16 +1859,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D86" s="0">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1870,13 +1879,13 @@
         <v>78</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D87" s="0">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
@@ -1884,13 +1893,13 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>8</v>
@@ -1901,13 +1910,13 @@
         <v>5</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>8</v>
@@ -1918,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>8</v>
@@ -1935,20 +1944,37 @@
         <v>5</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="0">
+        <v>41</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="0">
         <v>43</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E92" s="0" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E91"/>
+  <autoFilter ref="A1:E92"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1966,7 +1992,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -1976,7 +2002,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
+    <col min="2" max="2" width="25.279788970947266" customWidth="1"/>
     <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1988,44 +2014,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
+        <v>85</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="C4" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Catagory</t>
   </si>
@@ -272,13 +272,10 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>New-SuggestedInfraNames</t>
+    <t>Set-PSProjectFiles</t>
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFiles</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -1695,7 +1692,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>77</v>
@@ -1992,7 +1989,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -2002,7 +1999,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="25.279788970947266" customWidth="1"/>
+    <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
     <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2030,39 +2027,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Catagory</t>
   </si>
@@ -269,16 +269,10 @@
     <t>details</t>
   </si>
   <si>
-    <t>External Help</t>
+    <t>Not Copied</t>
   </si>
   <si>
     <t>Set-PSProjectFiles</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Not Copied</t>
   </si>
   <si>
     <t>Get-BinRoot</t>
@@ -1998,9 +1992,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
     <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
-    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
+    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2021,34 +2015,34 @@
       <c r="B2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>84</v>
+      <c r="C2" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Catagory</t>
   </si>
@@ -269,10 +269,16 @@
     <t>details</t>
   </si>
   <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFiles</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
     <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFiles</t>
   </si>
   <si>
     <t>Get-BinRoot</t>
@@ -332,7 +338,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E92" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E91" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -384,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -561,13 +567,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -578,13 +584,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -598,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
@@ -615,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
@@ -632,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
@@ -649,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="0">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
@@ -666,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="0">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
@@ -680,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -697,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1122,13 +1128,13 @@
         <v>46</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0">
-        <v>398</v>
+        <v>103</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1136,16 +1142,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="0">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1153,16 +1159,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1170,16 +1176,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="0">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -1187,16 +1193,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D47" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1210,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
@@ -1227,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -1244,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
@@ -1261,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
@@ -1278,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="0">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
@@ -1295,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
@@ -1312,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
@@ -1329,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
@@ -1346,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
@@ -1363,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -1380,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="0">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
@@ -1397,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
@@ -1411,13 +1417,13 @@
         <v>54</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D60" s="0">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
@@ -1425,16 +1431,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D61" s="0">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1448,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
@@ -1465,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>8</v>
@@ -1482,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>8</v>
@@ -1499,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>8</v>
@@ -1510,16 +1516,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D66" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67">
@@ -1527,16 +1533,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -1544,16 +1550,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69">
@@ -1561,16 +1567,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="0">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
@@ -1578,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D70" s="0">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71">
@@ -1595,16 +1601,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D71" s="0">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -1612,16 +1618,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="0">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -1629,16 +1635,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="0">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -1646,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>16</v>
@@ -1655,7 +1661,7 @@
         <v>71</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
@@ -1663,16 +1669,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="0">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
@@ -1680,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D76" s="0">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -1703,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>8</v>
@@ -1720,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>8</v>
@@ -1737,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>8</v>
@@ -1754,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>8</v>
@@ -1771,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>8</v>
@@ -1788,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>8</v>
@@ -1805,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>8</v>
@@ -1822,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="0">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>8</v>
@@ -1839,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>8</v>
@@ -1853,13 +1859,13 @@
         <v>78</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D86" s="0">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
@@ -1867,16 +1873,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D87" s="0">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -1890,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>8</v>
@@ -1907,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>8</v>
@@ -1924,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>8</v>
@@ -1941,31 +1947,14 @@
         <v>7</v>
       </c>
       <c r="D91" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="0">
-        <v>43</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E92"/>
+  <autoFilter ref="A1:E91"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1992,9 +1981,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
     <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
-    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
+    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2015,34 +2004,34 @@
       <c r="B2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="0">
-        <f>&gt;</f>
+      <c r="C2" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,11 +7,9 @@
   <sheets>
     <sheet name="ScriptAnalyzer" sheetId="1" r:id="rId1"/>
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
-    <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$88</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Catagory</t>
   </si>
@@ -77,18 +75,6 @@
     <t>Function 'New-AclObject' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
-    <t>Install-CitrixCloudConnector.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidUsingCmdletAliases</t>
-  </si>
-  <si>
-    <t>'Get-CTXAPI_ResourceLocations' is an alias of 'Get-CTXAPI_ResourceLocation'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
-    <t>'Get-CTXAPI_CloudConnectors' is an alias of 'Get-CTXAPI_CloudConnector'. Alias can introduce possible problems and make scripts hard to maintain. Please consider changing alias to its full content.</t>
-  </si>
-  <si>
     <t>New-CitrixSiteConfigFile.ps1</t>
   </si>
   <si>
@@ -218,15 +204,6 @@
     <t>Function 'Start-PSToolkitSystemInitialize' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
   </si>
   <si>
-    <t>Sync-PSFolders.ps1</t>
-  </si>
-  <si>
-    <t>PSAvoidOverwritingBuiltInCmdlets</t>
-  </si>
-  <si>
-    <t>'Write-Log' is a cmdlet that is included with PowerShell (version core-6.1.0-windows) whose definition should not be overridden</t>
-  </si>
-  <si>
     <t>Update-ListOfDDCs.ps1</t>
   </si>
   <si>
@@ -264,27 +241,6 @@
   </si>
   <si>
     <t>Write-PSToolKitLog.ps1</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>External Help</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFiles</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -323,9 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -338,7 +293,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E91" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E88" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -390,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -399,11 +354,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
-    <col min="2" max="2" width="31.715892791748047" customWidth="1"/>
-    <col min="3" max="3" width="43.569122314453125" customWidth="1"/>
+    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
+    <col min="2" max="2" width="31.715892791748" customWidth="1"/>
+    <col min="3" max="3" width="43.5691223144531" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="177.21006774902344" customWidth="1"/>
+    <col min="5" max="5" width="122.27660369873" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -737,13 +692,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="0">
+        <v>53</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" s="0">
-        <v>96</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -751,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>21</v>
@@ -774,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>23</v>
@@ -785,16 +740,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D23" s="0">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -802,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
@@ -819,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -836,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -853,13 +808,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
@@ -870,16 +825,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D28" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -893,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="D29" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>27</v>
@@ -904,16 +859,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D30" s="0">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -921,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="0">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
@@ -938,13 +893,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
@@ -955,16 +910,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>31</v>
@@ -995,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="0">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>33</v>
@@ -1012,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="0">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>35</v>
@@ -1029,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="0">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>37</v>
@@ -1046,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>39</v>
@@ -1063,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="0">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>41</v>
@@ -1074,16 +1029,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D40" s="0">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1091,16 +1046,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D41" s="0">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1114,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="0">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>45</v>
@@ -1131,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="0">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>47</v>
@@ -1148,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>49</v>
@@ -1165,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>51</v>
@@ -1176,16 +1131,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D46" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1193,13 +1148,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
@@ -1210,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
@@ -1227,13 +1182,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -1244,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
@@ -1261,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="0">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
@@ -1278,13 +1233,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
@@ -1295,13 +1250,13 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
@@ -1312,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
@@ -1329,13 +1284,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
@@ -1346,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
@@ -1363,13 +1318,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -1380,13 +1335,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
@@ -1397,13 +1352,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
@@ -1414,16 +1369,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D60" s="0">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1431,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
@@ -1448,13 +1403,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
@@ -1465,13 +1420,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>8</v>
@@ -1482,16 +1437,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D64" s="0">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
@@ -1499,16 +1454,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="0">
+        <v>68</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="0">
-        <v>42</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -1522,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>58</v>
@@ -1539,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>60</v>
@@ -1556,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>62</v>
@@ -1573,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>64</v>
@@ -1587,13 +1542,13 @@
         <v>65</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="0">
+        <v>71</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="D70" s="0">
-        <v>75</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="71">
@@ -1601,16 +1556,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="0">
+        <v>71</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="0">
-        <v>64</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -1618,16 +1573,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="0">
+        <v>54</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="0">
-        <v>53</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -1635,16 +1590,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="0">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="0">
-        <v>71</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -1652,16 +1607,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D74" s="0">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1669,16 +1624,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D75" s="0">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1686,13 +1641,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>8</v>
@@ -1703,13 +1658,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>8</v>
@@ -1720,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>8</v>
@@ -1737,13 +1692,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="0">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>8</v>
@@ -1754,13 +1709,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>8</v>
@@ -1771,13 +1726,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="0">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>8</v>
@@ -1788,13 +1743,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="0">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>8</v>
@@ -1805,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>8</v>
@@ -1822,13 +1777,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="0">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>8</v>
@@ -1839,13 +1794,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="0">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>8</v>
@@ -1856,16 +1811,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D86" s="0">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1873,13 +1828,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>8</v>
@@ -1890,71 +1845,20 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="0">
-        <v>40</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="0">
-        <v>41</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="0">
-        <v>43</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E91"/>
+  <autoFilter ref="A1:E88"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1968,70 +1872,4 @@
   <sheetData/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="17.10038185119629" customWidth="1"/>
-    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C4"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -1052,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>43</v>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" s="0">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1032,13 +1032,13 @@
         <v>40</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D40" s="0">
-        <v>384</v>
+        <v>63</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -1052,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>43</v>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$84</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -54,9 +54,6 @@
     <t>Get-SoftwareAudit.ps1</t>
   </si>
   <si>
-    <t>Get-WinEventLogExtract.ps1</t>
-  </si>
-  <si>
     <t>Import-XamlConfigFile.ps1</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Function 'New-AclObject' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
+  </si>
+  <si>
+    <t>Install-SSHServer.ps1</t>
   </si>
   <si>
     <t>New-CitrixSiteConfigFile.ps1</t>
@@ -293,7 +293,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E88" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E84" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -345,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
@@ -519,16 +519,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -536,16 +536,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -553,16 +553,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" s="0">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -570,16 +570,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="0">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -587,16 +587,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14" s="0">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -604,13 +604,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="0">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
@@ -621,16 +621,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -638,16 +638,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -655,16 +655,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -672,16 +672,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -689,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D20" s="0">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -706,16 +706,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -726,13 +726,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D22" s="0">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -774,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="0">
         <v>22</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="0">
-        <v>37</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
@@ -825,16 +825,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -842,16 +842,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -859,16 +859,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D30" s="0">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -876,16 +876,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D31" s="0">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -893,16 +893,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D32" s="0">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -910,16 +910,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="0">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -927,16 +927,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -944,16 +944,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D35" s="0">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -961,16 +961,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -978,16 +978,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="0">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -995,16 +995,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -1012,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D39" s="0">
-        <v>384</v>
+        <v>62</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -1029,16 +1029,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -1046,16 +1046,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="0">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -1063,16 +1063,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D42" s="0">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1080,16 +1080,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D43" s="0">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1097,16 +1097,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D44" s="0">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1117,13 +1117,13 @@
         <v>50</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D45" s="0">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1137,7 +1137,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
@@ -1154,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="0">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="0">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
@@ -1188,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="0">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="0">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="0">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="0">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
@@ -1256,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
@@ -1273,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="0">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
@@ -1284,13 +1284,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="0">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
@@ -1301,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
@@ -1318,13 +1318,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -1335,13 +1335,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="0">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
@@ -1358,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>8</v>
@@ -1369,16 +1369,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D60" s="0">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -1386,16 +1386,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D61" s="0">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62">
@@ -1403,16 +1403,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D62" s="0">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
@@ -1420,16 +1420,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D63" s="0">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
@@ -1437,16 +1437,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -1454,16 +1454,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="0">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -1471,16 +1471,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -1488,16 +1488,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
@@ -1505,16 +1505,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="0">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
@@ -1522,16 +1522,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D69" s="0">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1539,16 +1539,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D70" s="0">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1556,16 +1556,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D71" s="0">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -1573,16 +1573,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D72" s="0">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -1593,13 +1593,13 @@
         <v>71</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D73" s="0">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="0">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>8</v>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="0">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>8</v>
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="0">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>8</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>8</v>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="0">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>8</v>
@@ -1695,13 +1695,13 @@
         <v>71</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D79" s="0">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80">
@@ -1709,13 +1709,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>8</v>
@@ -1726,13 +1726,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="0">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>8</v>
@@ -1743,13 +1743,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="0">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>8</v>
@@ -1760,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>8</v>
@@ -1783,82 +1783,14 @@
         <v>7</v>
       </c>
       <c r="D84" s="0">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="0">
-        <v>38</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="0">
-        <v>40</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="0">
-        <v>41</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="0">
-        <v>43</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E88"/>
+  <autoFilter ref="A1:E84"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$89</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Catagory</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Get-SoftwareAudit.ps1</t>
+  </si>
+  <si>
+    <t>Get-WinEventLogExtract.ps1</t>
+  </si>
+  <si>
+    <t>PSUseDeclaredVarsMoreThanAssignments</t>
+  </si>
+  <si>
+    <t>The variable 'SectionSettings' is assigned but never used.</t>
   </si>
   <si>
     <t>Import-XamlConfigFile.ps1</t>
@@ -293,7 +302,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E84" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E89" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -345,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -437,13 +446,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -457,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="0">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
@@ -474,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="0">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
@@ -491,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
@@ -508,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
@@ -519,16 +528,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -536,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -553,16 +562,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -570,16 +579,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -590,13 +599,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -604,13 +613,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
@@ -621,16 +630,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -638,16 +647,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -655,16 +664,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -672,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -689,13 +698,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="0">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
@@ -706,16 +715,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="0">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0">
-        <v>37</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -723,16 +732,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -740,16 +749,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -757,16 +766,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D24" s="0">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -774,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -791,13 +800,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -808,13 +817,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
@@ -825,16 +834,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D28" s="0">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -842,16 +851,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="0">
+        <v>68</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="0">
-        <v>71</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -859,16 +868,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D30" s="0">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -876,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D31" s="0">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -893,16 +902,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D32" s="0">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -910,16 +919,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33" s="0">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -927,16 +936,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -944,16 +953,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0">
-        <v>384</v>
+        <v>63</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -961,16 +970,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -978,16 +987,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37" s="0">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -995,16 +1004,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38" s="0">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -1012,16 +1021,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -1029,16 +1038,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" s="0">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -1046,16 +1055,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D41" s="0">
-        <v>69</v>
+        <v>384</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1063,16 +1072,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D42" s="0">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1080,16 +1089,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D43" s="0">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1097,16 +1106,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="0">
+        <v>62</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="0">
-        <v>38</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1114,16 +1123,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D45" s="0">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
@@ -1131,13 +1140,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="0">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
@@ -1148,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="0">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>8</v>
@@ -1165,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="0">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
@@ -1182,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="0">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -1199,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="0">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
@@ -1216,13 +1225,13 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="0">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
@@ -1233,13 +1242,13 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="0">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
@@ -1250,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="0">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>8</v>
@@ -1267,13 +1276,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="0">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>8</v>
@@ -1284,13 +1293,13 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="0">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>8</v>
@@ -1301,13 +1310,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="0">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>8</v>
@@ -1318,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="0">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>8</v>
@@ -1335,13 +1344,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="0">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>8</v>
@@ -1352,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D59" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
@@ -1369,16 +1378,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D60" s="0">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1389,13 +1398,13 @@
         <v>55</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D61" s="0">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1403,16 +1412,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D62" s="0">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1420,16 +1429,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D63" s="0">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1437,16 +1446,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D64" s="0">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1454,16 +1463,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D65" s="0">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
@@ -1471,16 +1480,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D66" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -1488,16 +1497,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D67" s="0">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
@@ -1505,16 +1514,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D68" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
@@ -1522,16 +1531,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D69" s="0">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -1539,16 +1548,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D70" s="0">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71">
@@ -1556,16 +1565,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="0">
         <v>71</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="0">
-        <v>39</v>
-      </c>
       <c r="E71" s="0" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -1573,16 +1582,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="0">
         <v>71</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="0">
-        <v>40</v>
-      </c>
       <c r="E72" s="0" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -1590,16 +1599,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D73" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -1607,16 +1616,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D74" s="0">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
@@ -1624,13 +1633,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="0">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>8</v>
@@ -1641,13 +1650,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="0">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>8</v>
@@ -1658,13 +1667,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>8</v>
@@ -1675,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="0">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>8</v>
@@ -1692,16 +1701,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D79" s="0">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -1709,13 +1718,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>8</v>
@@ -1726,13 +1735,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="0">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>8</v>
@@ -1743,13 +1752,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="0">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>8</v>
@@ -1760,13 +1769,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>8</v>
@@ -1777,20 +1786,105 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="0">
+        <v>177</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0">
+        <v>22</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="0">
+        <v>38</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="0">
+        <v>40</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="0">
+        <v>41</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="0">
         <v>43</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E89" s="0" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E84"/>
+  <autoFilter ref="A1:E89"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Summery" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$88</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Catagory</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Function 'New-AclObject' has verb that could change system state. Therefore, the function has to support 'ShouldProcess'.</t>
-  </si>
-  <si>
-    <t>Install-SSHServer.ps1</t>
   </si>
   <si>
     <t>New-CitrixSiteConfigFile.ps1</t>
@@ -302,7 +299,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E89" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E88" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -354,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -449,7 +446,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="0">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>13</v>
@@ -466,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="0">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>8</v>
@@ -483,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="0">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
@@ -500,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
@@ -517,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
@@ -701,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D20" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -715,16 +712,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -732,16 +729,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="0">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -749,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D23" s="0">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -766,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="0">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
@@ -783,13 +780,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -800,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -817,13 +814,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
@@ -834,16 +831,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -851,16 +848,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="0">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -868,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
@@ -885,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
@@ -902,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>7</v>
@@ -919,16 +916,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -936,16 +933,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -953,16 +950,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -970,16 +967,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -987,16 +984,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="0">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -1004,16 +1001,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="0">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -1021,16 +1018,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -1038,16 +1035,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D40" s="0">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1055,16 +1052,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D41" s="0">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1072,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="0">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1089,16 +1086,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1106,16 +1103,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="0">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -1123,16 +1120,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="0">
+        <v>69</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="46">
@@ -1140,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>7</v>
@@ -1157,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>7</v>
@@ -1174,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>7</v>
@@ -1191,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>7</v>
@@ -1208,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>7</v>
@@ -1225,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>7</v>
@@ -1242,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>7</v>
@@ -1259,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>7</v>
@@ -1276,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>7</v>
@@ -1293,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>7</v>
@@ -1310,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>7</v>
@@ -1327,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>7</v>
@@ -1344,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>7</v>
@@ -1361,16 +1358,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D59" s="0">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1378,13 +1375,13 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>8</v>
@@ -1395,13 +1392,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>8</v>
@@ -1412,13 +1409,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>8</v>
@@ -1429,13 +1426,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>8</v>
@@ -1449,13 +1446,13 @@
         <v>55</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D64" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
@@ -1463,16 +1460,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -1480,16 +1477,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -1497,16 +1494,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="0">
         <v>60</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="0">
-        <v>79</v>
-      </c>
       <c r="E67" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
@@ -1514,16 +1511,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
@@ -1531,16 +1528,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="0">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70">
@@ -1548,16 +1545,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="0">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71">
@@ -1565,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>18</v>
@@ -1574,7 +1571,7 @@
         <v>71</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -1582,16 +1579,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="0">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
@@ -1599,16 +1596,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="0">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
@@ -1616,16 +1613,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D74" s="0">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1633,13 +1630,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="0">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>8</v>
@@ -1650,13 +1647,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>8</v>
@@ -1667,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>8</v>
@@ -1684,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>8</v>
@@ -1701,13 +1698,13 @@
         <v>5</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="0">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>8</v>
@@ -1718,13 +1715,13 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>8</v>
@@ -1735,13 +1732,13 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="0">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>8</v>
@@ -1752,13 +1749,13 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="0">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>8</v>
@@ -1769,13 +1766,13 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>8</v>
@@ -1786,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="0">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>8</v>
@@ -1803,13 +1800,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>8</v>
@@ -1820,13 +1817,13 @@
         <v>5</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>8</v>
@@ -1837,13 +1834,13 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>8</v>
@@ -1854,37 +1851,20 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="0">
-        <v>43</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E89"/>
+  <autoFilter ref="A1:E88"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>External Help</t>
+  </si>
+  <si>
+    <t>Reset-PSGallery.md</t>
+  </si>
+  <si>
+    <t>Reset-PSGallery.md - ### -Force - {{ Fill Force Description }}</t>
   </si>
   <si>
     <t>Start-PSScriptAnalyzer.md</t>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -128,17 +134,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0">
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Write-PSToolKitMessage.md</t>
+  </si>
+  <si>
+    <t>Write-PSToolKitMessage.md - ### -Action - {{ Fill Action Description }}</t>
+  </si>
+  <si>
+    <t>Write-PSToolKitMessage.md - ### -Severity - {{ Fill Severity Description }}</t>
+  </si>
+  <si>
+    <t>Write-PSToolKitMessage.md - ### -Object - {{ Fill Object Description }}</t>
+  </si>
+  <si>
+    <t>Write-PSToolKitMessage.md - ### -Message - {{ Fill Message Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -90,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -100,8 +115,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="2" max="2" width="26.4409675598145" customWidth="1"/>
+    <col min="3" max="3" width="66.7231369018555" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,28 +143,72 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C8" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C8"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,21 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Write-PSToolKitMessage.md</t>
-  </si>
-  <si>
-    <t>Write-PSToolKitMessage.md - ### -Action - {{ Fill Action Description }}</t>
-  </si>
-  <si>
-    <t>Write-PSToolKitMessage.md - ### -Severity - {{ Fill Severity Description }}</t>
-  </si>
-  <si>
-    <t>Write-PSToolKitMessage.md - ### -Object - {{ Fill Object Description }}</t>
-  </si>
-  <si>
-    <t>Write-PSToolKitMessage.md - ### -Message - {{ Fill Message Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -105,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -115,8 +100,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="26.4409675598145" customWidth="1"/>
-    <col min="3" max="3" width="66.7231369018555" customWidth="1"/>
+    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,72 +128,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,10 +29,13 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Test-CitrixVDAPorts</t>
+    <t>Get-FullADUserDetail</t>
   </si>
   <si>
     <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Test-CitrixVDAPorts</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -93,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -103,7 +106,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="2" max="2" width="20.1286563873291" customWidth="1"/>
     <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
@@ -131,28 +134,50 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C5" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C6"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Test-CitrixVDAPorts</t>
+  </si>
+  <si>
+    <t>Install-WSL2.md</t>
+  </si>
+  <si>
+    <t>Install-WSL2.md - ### -DistroPath - {{ Fill DistroPath Description }}</t>
+  </si>
+  <si>
+    <t>Install-WSL2.md - ### -Ubuntu - {{ Fill Ubuntu Description }}</t>
+  </si>
+  <si>
+    <t>Install-WSL2.md - ### -Debian - {{ Fill Debian Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -96,7 +108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -107,7 +119,7 @@
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
     <col min="2" max="2" width="20.1286563873291" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="3" max="3" width="59.0470809936523" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -145,39 +157,72 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0">
-        <f>&gt;</f>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0">
-        <f>&gt;</f>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6"/>
+  <autoFilter ref="A1:C9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,25 +29,10 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Get-FullADUserDetail</t>
+    <t>Test-CitrixVDAPorts</t>
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Test-CitrixVDAPorts</t>
-  </si>
-  <si>
-    <t>Install-WSL2.md</t>
-  </si>
-  <si>
-    <t>Install-WSL2.md - ### -DistroPath - {{ Fill DistroPath Description }}</t>
-  </si>
-  <si>
-    <t>Install-WSL2.md - ### -Ubuntu - {{ Fill Ubuntu Description }}</t>
-  </si>
-  <si>
-    <t>Install-WSL2.md - ### -Debian - {{ Fill Debian Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -108,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -118,8 +103,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="20.1286563873291" customWidth="1"/>
-    <col min="3" max="3" width="59.0470809936523" customWidth="1"/>
+    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,18 +131,18 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -166,63 +151,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile</t>
   </si>
   <si>
     <t>Get-BinRoot</t>
@@ -93,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -134,7 +137,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0">
         <f>&gt;</f>
@@ -145,14 +148,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -35,10 +35,10 @@
     <t>Did not create the .md file</t>
   </si>
   <si>
-    <t>Start-PSScriptAnalyzer.md</t>
+    <t>Test-IsFileOpen.md</t>
   </si>
   <si>
-    <t>Start-PSScriptAnalyzer.md - ### -ExcludeDefault - {{ Fill ExcludeDefault Description }}</t>
+    <t>Test-IsFileOpen.md - ### -Path - {{ Fill Path Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -106,8 +106,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="24.3805141448975" customWidth="1"/>
-    <col min="3" max="3" width="75.5685501098633" customWidth="1"/>
+    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="3" max="3" width="51.2134666442871" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Test-IsFileOpen.md</t>
-  </si>
-  <si>
-    <t>Test-IsFileOpen.md - ### -Path - {{ Fill Path Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -96,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -107,7 +101,7 @@
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
     <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
-    <col min="3" max="3" width="51.2134666442871" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,39 +128,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>New-CitrixSiteConfigFile.md</t>
+  </si>
+  <si>
+    <t>New-CitrixSiteConfigFile.md - ### -ConfigName - {{ Fill ConfigName Description }}</t>
+  </si>
+  <si>
+    <t>New-CitrixSiteConfigFile.md - ### -Path - {{ Fill Path Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -90,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -100,8 +109,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="2" max="2" width="25.9703578948975" customWidth="1"/>
+    <col min="3" max="3" width="72.4236602783203" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,28 +137,50 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C6" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C6"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>New-CitrixSiteConfigFile.md</t>
-  </si>
-  <si>
-    <t>New-CitrixSiteConfigFile.md - ### -ConfigName - {{ Fill ConfigName Description }}</t>
-  </si>
-  <si>
-    <t>New-CitrixSiteConfigFile.md - ### -Path - {{ Fill Path Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -99,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -109,8 +100,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="25.9703578948975" customWidth="1"/>
-    <col min="3" max="3" width="72.4236602783203" customWidth="1"/>
+    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,50 +128,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Compare-ADMembership.md</t>
+  </si>
+  <si>
+    <t>Compare-ADMembership.md - ### -ReferenceUser - {{ Fill ReferenceUser Description }}</t>
+  </si>
+  <si>
+    <t>Compare-ADMembership.md - ### -DifferenceUser - {{ Fill DifferenceUser Description }}</t>
+  </si>
+  <si>
+    <t>Compare-ADMembership.md - ### -DomainFQDN - {{ Fill DomainFQDN Description }}</t>
+  </si>
+  <si>
+    <t>Compare-ADMembership.md - ### -DomainCredential - {{ Fill DomainCredential Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -90,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -100,8 +115,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="2" max="2" width="27.2686290740967" customWidth="1"/>
+    <col min="3" max="3" width="83.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,28 +143,72 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C8" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C8"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,21 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Compare-ADMembership.md</t>
-  </si>
-  <si>
-    <t>Compare-ADMembership.md - ### -ReferenceUser - {{ Fill ReferenceUser Description }}</t>
-  </si>
-  <si>
-    <t>Compare-ADMembership.md - ### -DifferenceUser - {{ Fill DifferenceUser Description }}</t>
-  </si>
-  <si>
-    <t>Compare-ADMembership.md - ### -DomainFQDN - {{ Fill DomainFQDN Description }}</t>
-  </si>
-  <si>
-    <t>Compare-ADMembership.md - ### -DomainCredential - {{ Fill DomainCredential Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -105,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -115,8 +100,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="27.2686290740967" customWidth="1"/>
-    <col min="3" max="3" width="83.921875" customWidth="1"/>
+    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,72 +128,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Set-PSProjectFile</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -148,8 +154,19 @@
         <f>&gt;</f>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Catagory</t>
   </si>
@@ -35,16 +35,34 @@
     <t>Did not create the .md file</t>
   </si>
   <si>
+    <t>Find-OnlineScript.md</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -NoAzureAWS - {{ Fill NoAzureAWS Description }}</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -MaxCount - {{ Fill MaxCount Description }}</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -Offline - {{ Fill Offline Description }}</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -UpdateCache - {{ Fill UpdateCache Description }}</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -SortOrder - {{ Fill SortOrder Description }}</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -Export - {{ Fill Export Description }}</t>
+  </si>
+  <si>
+    <t>Find-OnlineScript.md - ### -ReportPath - {{ Fill ReportPath Description }}</t>
+  </si>
+  <si>
     <t>Not Copied</t>
   </si>
   <si>
     <t>Set-PSProjectFile</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -96,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -106,8 +124,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="2" max="2" width="19.9987239837646" customWidth="1"/>
+    <col min="3" max="3" width="68.3917617797852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,39 +152,105 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0">
-        <f>&gt;</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C11"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,30 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -NoAzureAWS - {{ Fill NoAzureAWS Description }}</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -MaxCount - {{ Fill MaxCount Description }}</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -Offline - {{ Fill Offline Description }}</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -UpdateCache - {{ Fill UpdateCache Description }}</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -SortOrder - {{ Fill SortOrder Description }}</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -Export - {{ Fill Export Description }}</t>
-  </si>
-  <si>
-    <t>Find-OnlineScript.md - ### -ReportPath - {{ Fill ReportPath Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -114,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -124,8 +100,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="19.9987239837646" customWidth="1"/>
-    <col min="3" max="3" width="68.3917617797852" customWidth="1"/>
+    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,105 +128,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C11"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -131,25 +128,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0">
         <f>&gt;</f>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -128,14 +131,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0">
         <f>&gt;</f>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Catagory</t>
   </si>
@@ -35,10 +35,46 @@
     <t>Did not create the .md file</t>
   </si>
   <si>
+    <t>Build-ModuleDocumentation.md</t>
+  </si>
+  <si>
+    <t>Build-ModuleDocumentation.md - ### -ModulePSM1 - {{ Fill ModulePSM1 Description }}</t>
+  </si>
+  <si>
+    <t>Build-MonolithicModule.md</t>
+  </si>
+  <si>
+    <t>Build-MonolithicModule.md - ### -ModulePSM1 - {{ Fill ModulePSM1 Description }}</t>
+  </si>
+  <si>
+    <t>Build-ModuleDocumentation.md - ### -VersionBump - {{ Fill VersionBump Description }}</t>
+  </si>
+  <si>
+    <t>Build-MonolithicModule.md - ### -VersionBump - {{ Fill VersionBump Description }}</t>
+  </si>
+  <si>
+    <t>Build-ModuleDocumentation.md - ### -CopyNestedModules - {{ Fill CopyNestedModules Description }}</t>
+  </si>
+  <si>
+    <t>Build-MonolithicModule.md - ### -CopyNestedModules - {{ Fill CopyNestedModules Description }}</t>
+  </si>
+  <si>
+    <t>Build-ModuleDocumentation.md - ### -mkdocs - {{ Fill mkdocs Description }}</t>
+  </si>
+  <si>
+    <t>Build-ModuleDocumentation.md - ### -GitPush - {{ Fill GitPush Description }}</t>
+  </si>
+  <si>
+    <t>Build-MonolithicModule.md - ### -OutputFolder - {{ Fill OutputFolder Description }}</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile.md</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile.md - ### -mkdoc - {{ Fill mkdoc Description }}</t>
+  </si>
+  <si>
     <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile</t>
   </si>
 </sst>
 </file>
@@ -90,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -100,8 +136,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.6922721862793" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="2" max="2" width="30.4165992736816" customWidth="1"/>
+    <col min="3" max="3" width="91.8475723266602" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,28 +164,127 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C13" s="0">
         <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C13"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Catagory</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -277,14 +280,25 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0">
         <f>&gt;</f>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:C14"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Catagory</t>
   </si>
@@ -35,39 +35,6 @@
     <t>Did not create the .md file</t>
   </si>
   <si>
-    <t>Build-ModuleDocumentation.md</t>
-  </si>
-  <si>
-    <t>Build-ModuleDocumentation.md - ### -ModulePSM1 - {{ Fill ModulePSM1 Description }}</t>
-  </si>
-  <si>
-    <t>Build-MonolithicModule.md</t>
-  </si>
-  <si>
-    <t>Build-MonolithicModule.md - ### -ModulePSM1 - {{ Fill ModulePSM1 Description }}</t>
-  </si>
-  <si>
-    <t>Build-ModuleDocumentation.md - ### -VersionBump - {{ Fill VersionBump Description }}</t>
-  </si>
-  <si>
-    <t>Build-MonolithicModule.md - ### -VersionBump - {{ Fill VersionBump Description }}</t>
-  </si>
-  <si>
-    <t>Build-ModuleDocumentation.md - ### -CopyNestedModules - {{ Fill CopyNestedModules Description }}</t>
-  </si>
-  <si>
-    <t>Build-MonolithicModule.md - ### -CopyNestedModules - {{ Fill CopyNestedModules Description }}</t>
-  </si>
-  <si>
-    <t>Build-ModuleDocumentation.md - ### -mkdocs - {{ Fill mkdocs Description }}</t>
-  </si>
-  <si>
-    <t>Build-ModuleDocumentation.md - ### -GitPush - {{ Fill GitPush Description }}</t>
-  </si>
-  <si>
-    <t>Build-MonolithicModule.md - ### -OutputFolder - {{ Fill OutputFolder Description }}</t>
-  </si>
-  <si>
     <t>Set-PSProjectFile.md</t>
   </si>
   <si>
@@ -77,7 +44,10 @@
     <t>Not Copied</t>
   </si>
   <si>
-    <t>Set-PSProjectFile</t>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -129,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -138,9 +108,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="30.4165992736816" customWidth="1"/>
-    <col min="3" max="3" width="91.8475723266602" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="19.659069061279297" customWidth="1"/>
+    <col min="3" max="3" width="56.25615692138672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -178,127 +148,28 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
+      <c r="C4" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C14"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile.md</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile.md - ### -mkdoc - {{ Fill mkdoc Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -99,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -109,8 +103,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="19.659069061279297" customWidth="1"/>
-    <col min="3" max="3" width="56.25615692138672" customWidth="1"/>
+    <col min="2" max="2" width="18.692272186279297" customWidth="1"/>
+    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,39 +131,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
-      <c r="C4" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -93,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -140,19 +134,8 @@
         <f>&gt;</f>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -134,8 +140,19 @@
         <f>&gt;</f>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,27 +29,39 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Install-LocalPSRepository</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
     <t>Install-PSModule.md</t>
   </si>
   <si>
+    <t>Install-PSModule.md - ### -DownloadModules - {{ Fill DownloadModules Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportDirectory - {{ Fill ImportDirectory Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportPath - {{ Fill ImportPath Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportPowerShellGet - {{ Fill ImportPowerShellGet Description }}</t>
+  </si>
+  <si>
     <t>Install-PSModule.md - ### -List - {{ Fill List Description }}</t>
   </si>
   <si>
     <t>Install-PSModule.md - ### -ModuleNamesList - {{ Fill ModuleNamesList Description }}</t>
   </si>
   <si>
-    <t>Install-PSModule.md - ### -DownloadModules - {{ Fill DownloadModules Description }}</t>
-  </si>
-  <si>
     <t>Install-PSModule.md - ### -Path - {{ Fill Path Description }}</t>
   </si>
   <si>
+    <t>Install-LocalPSRepository.md - ### -RepoName - {{ Fill RepoName Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -RepoPath - {{ Fill RepoPath Description }}</t>
+  </si>
+  <si>
     <t>Install-PSModule.md - ### -Repository - {{ Fill Repository Description }}</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
   </si>
   <si>
     <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Get-PackageParameters</t>
   </si>
 </sst>
 </file>
@@ -111,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -120,9 +135,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="23.3799571990967" customWidth="1"/>
-    <col min="3" max="3" width="77.7006225585938" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="26.782670974731445" customWidth="1"/>
+    <col min="3" max="3" width="89.57022857666016" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -185,7 +200,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -196,7 +211,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -204,17 +219,72 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C13"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,52 +29,40 @@
     <t>External Help</t>
   </si>
   <si>
+    <t>Install-LocalPSRepository.md</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -RepoName - {{ Fill RepoName Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -RepoPath - {{ Fill RepoPath Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportPowerShellGet - {{ Fill ImportPowerShellGet Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportDirectory - {{ Fill ImportDirectory Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportPath - {{ Fill ImportPath Description }}</t>
+  </si>
+  <si>
     <t>Install-PSModule.md</t>
   </si>
   <si>
+    <t>Install-PSModule.md - ### -List - {{ Fill List Description }}</t>
+  </si>
+  <si>
+    <t>Install-PSModule.md - ### -ModuleNamesList - {{ Fill ModuleNamesList Description }}</t>
+  </si>
+  <si>
     <t>Install-PSModule.md - ### -DownloadModules - {{ Fill DownloadModules Description }}</t>
   </si>
   <si>
-    <t>Install-LocalPSRepository.md</t>
-  </si>
-  <si>
-    <t>Install-LocalPSRepository.md - ### -ImportDirectory - {{ Fill ImportDirectory Description }}</t>
-  </si>
-  <si>
-    <t>Install-LocalPSRepository.md - ### -ImportPath - {{ Fill ImportPath Description }}</t>
-  </si>
-  <si>
-    <t>Install-LocalPSRepository.md - ### -ImportPowerShellGet - {{ Fill ImportPowerShellGet Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -List - {{ Fill List Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -ModuleNamesList - {{ Fill ModuleNamesList Description }}</t>
-  </si>
-  <si>
     <t>Install-PSModule.md - ### -Path - {{ Fill Path Description }}</t>
   </si>
   <si>
-    <t>Install-LocalPSRepository.md - ### -RepoName - {{ Fill RepoName Description }}</t>
-  </si>
-  <si>
-    <t>Install-LocalPSRepository.md - ### -RepoPath - {{ Fill RepoPath Description }}</t>
-  </si>
-  <si>
     <t>Install-PSModule.md - ### -Repository - {{ Fill Repository Description }}</t>
-  </si>
-  <si>
-    <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Get-PackageParameters</t>
   </si>
 </sst>
 </file>
@@ -126,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -135,9 +123,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="26.782670974731445" customWidth="1"/>
-    <col min="3" max="3" width="89.57022857666016" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="26.7826709747314" customWidth="1"/>
+    <col min="3" max="3" width="89.5702285766602" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,10 +155,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -178,10 +166,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -189,10 +177,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -203,7 +191,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -211,7 +199,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -222,7 +210,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
@@ -233,7 +221,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>13</v>
@@ -244,7 +232,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>14</v>
@@ -255,36 +243,14 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:C11"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Catagory</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>External Help</t>
+  </si>
+  <si>
+    <t>Publish-ModuleToLocalRepo</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Install-LocalPSRepository.md</t>
@@ -114,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -155,10 +161,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -166,10 +172,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -177,10 +183,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -188,10 +194,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -199,7 +205,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -210,10 +216,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -221,10 +227,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -232,10 +238,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -243,14 +249,25 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C11"/>
+  <autoFilter ref="A1:C12"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,46 +29,49 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Publish-ModuleToLocalRepo</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
-  </si>
-  <si>
     <t>Install-LocalPSRepository.md</t>
   </si>
   <si>
+    <t>Install-LocalPSRepository.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install-LocalPSRepository.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -DownloadModules - {{ Fill DownloadModules Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ImportPowerShellGet - {{ Fill ImportPowerShellGet Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -List - {{ Fill List Description }}</t>
+  </si>
+  <si>
+    <t>Install-LocalPSRepository.md - ### -ModuleNamesList - {{ Fill ModuleNamesList Description }}</t>
+  </si>
+  <si>
     <t>Install-LocalPSRepository.md - ### -RepoName - {{ Fill RepoName Description }}</t>
   </si>
   <si>
     <t>Install-LocalPSRepository.md - ### -RepoPath - {{ Fill RepoPath Description }}</t>
   </si>
   <si>
-    <t>Install-LocalPSRepository.md - ### -ImportPowerShellGet - {{ Fill ImportPowerShellGet Description }}</t>
-  </si>
-  <si>
-    <t>Install-LocalPSRepository.md - ### -ImportDirectory - {{ Fill ImportDirectory Description }}</t>
-  </si>
-  <si>
-    <t>Install-LocalPSRepository.md - ### -ImportPath - {{ Fill ImportPath Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -List - {{ Fill List Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -ModuleNamesList - {{ Fill ModuleNamesList Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -DownloadModules - {{ Fill DownloadModules Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -Path - {{ Fill Path Description }}</t>
-  </si>
-  <si>
-    <t>Install-PSModule.md - ### -Repository - {{ Fill Repository Description }}</t>
+    <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Get-PackageParameters</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -161,10 +164,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -172,10 +175,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -183,10 +186,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -194,10 +197,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -205,10 +208,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -216,10 +219,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -227,10 +230,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -238,10 +241,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -249,25 +252,36 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C12"/>
+  <autoFilter ref="A1:C13"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -96,9 +96,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
-    <col min="2" max="2" width="22.5236511230469" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
+    <col min="2" max="2" width="22.523651123046875" customWidth="1"/>
+    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Get-Get-NestedADGroupMembers</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -36,6 +45,9 @@
   </si>
   <si>
     <t>Get-PackageParameters</t>
+  </si>
+  <si>
+    <t>Get-AllUsersInGroup</t>
   </si>
 </sst>
 </file>
@@ -87,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -96,9 +108,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
-    <col min="2" max="2" width="22.5236511230469" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="31.838659286499" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -125,17 +137,50 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C6"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,7 +8,7 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -29,7 +29,7 @@
     <t>External Help</t>
   </si>
   <si>
-    <t>Get-Get-NestedADGroupMembers</t>
+    <t>Get-NestedADGroupMembers</t>
   </si>
   <si>
     <t>Did not create the .md file</t>
@@ -109,7 +109,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="31.838659286499" customWidth="1"/>
+    <col min="2" max="2" width="28.0185356140137" customWidth="1"/>
     <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
@@ -140,10 +140,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -151,7 +151,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
@@ -162,7 +162,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
@@ -180,7 +180,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>details</t>
-  </si>
-  <si>
-    <t>External Help</t>
-  </si>
-  <si>
-    <t>Get-NestedADGroupMembers</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -99,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -108,9 +99,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="28.0185356140137" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="2" max="2" width="22.5236511230469" customWidth="1"/>
+    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,50 +128,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Get-PackageParameters</t>
-  </si>
-  <si>
-    <t>Get-AllUsersInGroup</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -137,19 +134,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Edit-PSModulesList</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -87,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -96,9 +105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
     <col min="2" max="2" width="22.5236511230469" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -125,17 +134,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>details</t>
-  </si>
-  <si>
-    <t>External Help</t>
-  </si>
-  <si>
-    <t>Edit-PSModulesList</t>
-  </si>
-  <si>
-    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -45,6 +36,9 @@
   </si>
   <si>
     <t>Get-PackageParameters</t>
+  </si>
+  <si>
+    <t>Show-PSToolKit</t>
   </si>
 </sst>
 </file>
@@ -105,9 +99,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="22.5236511230469" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
+    <col min="2" max="2" width="22.523651123046875" customWidth="1"/>
+    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,24 +128,24 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Catagory</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Get-PackageParameters</t>
-  </si>
-  <si>
-    <t>Show-PSToolKit</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -137,19 +134,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -29,13 +29,13 @@
     <t>Not Copied</t>
   </si>
   <si>
-    <t>Get-BinRoot</t>
+    <t>Edit-PSModulesList</t>
   </si>
   <si>
     <t>&lt;=</t>
   </si>
   <si>
-    <t>Get-PackageParameters</t>
+    <t>Install-PSModule</t>
   </si>
 </sst>
 </file>
@@ -96,9 +96,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.65590763092041" customWidth="1"/>
-    <col min="2" max="2" width="22.523651123046875" customWidth="1"/>
-    <col min="3" max="3" width="9.641491413116455" customWidth="1"/>
+    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="2" max="2" width="18.2196159362793" customWidth="1"/>
+    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Show-PSToolKit</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -87,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -96,9 +105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
     <col min="2" max="2" width="18.2196159362793" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -125,17 +134,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Catagory</t>
   </si>
@@ -27,6 +27,33 @@
   </si>
   <si>
     <t>External Help</t>
+  </si>
+  <si>
+    <t>Find-OnlineModule.md</t>
+  </si>
+  <si>
+    <t>Find-OnlineModule.md - ### -DownloadJeffReport - {{ Fill DownloadJeffReport Description }}</t>
+  </si>
+  <si>
+    <t>Set-ObjectOwnerShip.md</t>
+  </si>
+  <si>
+    <t>Set-ObjectOwnerShip.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-ObjectOwnerShip.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>Set-ObjectOwnerShip.md - ### -FolderPath - {{ Fill FolderPath Description }}</t>
+  </si>
+  <si>
+    <t>Set-ObjectOwnerShip.md - ### -UserName - {{ Fill UserName Description }}</t>
+  </si>
+  <si>
+    <t>Set-SharedPSProfile.md</t>
+  </si>
+  <si>
+    <t>Set-SharedPSProfile.md - ### -ProfilePath - {{ Fill ProfilePath Description }}</t>
   </si>
   <si>
     <t>Update-MyModulesFromGitHub.md</t>
@@ -96,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -107,7 +134,7 @@
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
     <col min="2" max="2" width="33.241283416748" customWidth="1"/>
-    <col min="3" max="3" width="73.3884124755859" customWidth="1"/>
+    <col min="3" max="3" width="82.6583938598633" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,28 +161,94 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C10"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Catagory</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>Set-PSProjectFile</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -123,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -236,19 +230,8 @@
         <f>&gt;</f>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C10"/>
+  <autoFilter ref="A1:C9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,27 +29,18 @@
     <t>External Help</t>
   </si>
   <si>
+    <t>Install-WingetApps</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
     <t>Find-OnlineModule.md</t>
   </si>
   <si>
     <t>Find-OnlineModule.md - ### -DownloadJeffReport - {{ Fill DownloadJeffReport Description }}</t>
   </si>
   <si>
-    <t>Set-ObjectOwnerShip.md</t>
-  </si>
-  <si>
-    <t>Set-ObjectOwnerShip.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set-ObjectOwnerShip.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t>Set-ObjectOwnerShip.md - ### -FolderPath - {{ Fill FolderPath Description }}</t>
-  </si>
-  <si>
-    <t>Set-ObjectOwnerShip.md - ### -UserName - {{ Fill UserName Description }}</t>
-  </si>
-  <si>
     <t>Set-SharedPSProfile.md</t>
   </si>
   <si>
@@ -66,6 +57,12 @@
   </si>
   <si>
     <t>Set-PSProjectFile</t>
+  </si>
+  <si>
+    <t>Get-BinRoot</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -117,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -169,10 +166,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -180,58 +177,47 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="0">
-        <f>&gt;</f>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C8"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,24 +33,6 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
-  </si>
-  <si>
-    <t>Find-OnlineModule.md</t>
-  </si>
-  <si>
-    <t>Find-OnlineModule.md - ### -DownloadJeffReport - {{ Fill DownloadJeffReport Description }}</t>
-  </si>
-  <si>
-    <t>Set-SharedPSProfile.md</t>
-  </si>
-  <si>
-    <t>Set-SharedPSProfile.md - ### -ProfilePath - {{ Fill ProfilePath Description }}</t>
-  </si>
-  <si>
-    <t>Update-MyModulesFromGitHub.md</t>
-  </si>
-  <si>
-    <t>Update-MyModulesFromGitHub.md - ### -Modules - {{ Fill Modules Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -114,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -123,9 +105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="33.241283416748" customWidth="1"/>
-    <col min="3" max="3" width="82.6583938598633" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="18.064109802246094" customWidth="1"/>
+    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,72 +134,39 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
+      <c r="C4" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -105,9 +105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="18.064109802246094" customWidth="1"/>
-    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="18.0641098022461" customWidth="1"/>
+    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catagory</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Set-PSProjectFile</t>
-  </si>
-  <si>
-    <t>Get-BinRoot</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -96,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -154,19 +148,8 @@
         <f>&gt;</f>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Connect-VMWareCluster.md</t>
+  </si>
+  <si>
+    <t>Connect-VMWareCluster.md - ### -vCenterCredencial - {{ Fill vCenterCredencial Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -100,8 +106,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="18.0641098022461" customWidth="1"/>
-    <col min="3" max="3" width="24.4306449890137" customWidth="1"/>
+    <col min="2" max="2" width="26.7652797698975" customWidth="1"/>
+    <col min="3" max="3" width="83.8604888916016" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,28 +134,39 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0">
         <f>&gt;</f>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>External Help</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile.md</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile.md - ### -BuildHelpFiles - {{ Fill BuildHelpFiles Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -87,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -96,9 +105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
-    <col min="2" max="2" width="16.2563533782959" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="19.6590690612793" customWidth="1"/>
+    <col min="3" max="3" width="69.2347640991211" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -119,23 +128,34 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0">
-        <f>&gt;</f>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C4"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Catagory</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>details</t>
-  </si>
-  <si>
-    <t>External Help</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile.md</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile.md - ### -BuildHelpFiles - {{ Fill BuildHelpFiles Description }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -96,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -105,9 +96,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="19.6590690612793" customWidth="1"/>
-    <col min="3" max="3" width="69.2347640991211" customWidth="1"/>
+    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="2" max="2" width="16.2563533782959" customWidth="1"/>
+    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,34 +119,23 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
+      <c r="C2" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Catagory</t>
   </si>
@@ -32,43 +32,40 @@
     <t>Find-OnlineModule</t>
   </si>
   <si>
-    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Find-OnlineModule.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Find-OnlineModule.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Install-BGInfo</t>
   </si>
   <si>
-    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-BGInfo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-BGInfo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Install-MicrosoftTerminal</t>
   </si>
   <si>
-    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-MicrosoftTerminal.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-MicrosoftTerminal.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Publish-ModuleToLocalRepo</t>
   </si>
   <si>
-    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Publish-ModuleToLocalRepo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Publish-ModuleToLocalRepo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Test-CitrixVDAPort</t>
   </si>
   <si>
-    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Test-CitrixVDAPort.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Test-CitrixVDAPort.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Write-Message</t>
   </si>
   <si>
-    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Write-Message.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Write-Message.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Not Copied</t>
-  </si>
-  <si>
-    <t>Set-PSProjectFile</t>
   </si>
   <si>
     <t>Get-BinRoot</t>
@@ -126,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -135,9 +132,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.9498052597046" customWidth="1"/>
-    <col min="2" max="2" width="26.4358520507813" customWidth="1"/>
-    <col min="3" max="3" width="347.926940917969" customWidth="1"/>
+    <col min="1" max="1" width="12.94980525970459" customWidth="1"/>
+    <col min="2" max="2" width="26.43585205078125" customWidth="1"/>
+    <col min="3" max="3" width="335.14373779296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -224,23 +221,12 @@
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0">
-        <f>&gt;</f>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C8"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Catagory</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Find-OnlineModule</t>
   </si>
   <si>
-    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Find-OnlineModule.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Find-OnlineModule.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Install-BGInfo</t>
   </si>
   <si>
-    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-BGInfo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-BGInfo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Install-MicrosoftTerminal</t>
   </si>
   <si>
-    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-MicrosoftTerminal.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Install-MicrosoftTerminal.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Publish-ModuleToLocalRepo</t>
   </si>
   <si>
-    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Publish-ModuleToLocalRepo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Publish-ModuleToLocalRepo.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Test-CitrixVDAPort</t>
   </si>
   <si>
-    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Test-CitrixVDAPort.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Test-CitrixVDAPort.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Write-Message</t>
   </si>
   <si>
-    <t>Script 'V:\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Write-Message.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
+    <t>Script 'D:\SharedProfile\CloudStorage\Dropbox\#Profile\Documents\PowerShell\ProdModules\PSToolKit\PSToolKit\Public\Write-Message.ps1' is missing required metadata properties. Verify that the script file has Version, Guid, Description and Author properties. You can use the Update-ScriptFileInfo or New-ScriptFileInfo cmdlet to add or update the PSScriptInfo to the script file.</t>
   </si>
   <si>
     <t>Not Copied</t>
+  </si>
+  <si>
+    <t>Set-PSProjectFile</t>
   </si>
   <si>
     <t>Get-BinRoot</t>
@@ -123,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -132,9 +135,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.94980525970459" customWidth="1"/>
-    <col min="2" max="2" width="26.43585205078125" customWidth="1"/>
-    <col min="3" max="3" width="335.14373779296875" customWidth="1"/>
+    <col min="1" max="1" width="12.9498052597046" customWidth="1"/>
+    <col min="2" max="2" width="26.4358520507813" customWidth="1"/>
+    <col min="3" max="3" width="347.926940917969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -221,12 +224,23 @@
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="0">
+        <f>&gt;</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,7 +8,7 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -240,7 +240,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C9"/>
+  <autoFilter ref="A1:C8"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -26,10 +26,19 @@
     <t>details</t>
   </si>
   <si>
-    <t>Not Copied</t>
+    <t>External Help</t>
   </si>
   <si>
-    <t>Set-PSProjectFile</t>
+    <t>Get-RDSSessionReport</t>
+  </si>
+  <si>
+    <t>Did not create the .md file</t>
+  </si>
+  <si>
+    <t>Start-DomainControllerReplication</t>
+  </si>
+  <si>
+    <t>Not Copied</t>
   </si>
   <si>
     <t>Get-BinRoot</t>
@@ -96,9 +105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
-    <col min="2" max="2" width="16.2563533782959" customWidth="1"/>
-    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="31.804899215698242" customWidth="1"/>
+    <col min="3" max="3" width="24.430644989013672" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,26 +121,37 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
-      <c r="C3" s="0">
-        <f>&gt;</f>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
